--- a/tests/data/order_sheet_test.xlsx
+++ b/tests/data/order_sheet_test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bestanden\1-SEP TRUCK\sep-2021_q1-group-2\tests\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B96EA68-BA19-4A3E-ADCF-0ABB71F6F090}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="9870" windowHeight="8055" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="740" windowWidth="9880" windowHeight="8060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="2" r:id="rId1"/>
@@ -22,11 +16,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$AW$134</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -2661,7 +2658,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2943,13 +2940,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Pivot Table Category" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Pivot Table Corner" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Pivot Table Field" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Pivot Table Result" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Pivot Table Title" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Pivot Table Value" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pivot Table Category" xfId="4"/>
+    <cellStyle name="Pivot Table Corner" xfId="1"/>
+    <cellStyle name="Pivot Table Field" xfId="3"/>
+    <cellStyle name="Pivot Table Result" xfId="6"/>
+    <cellStyle name="Pivot Table Title" xfId="5"/>
+    <cellStyle name="Pivot Table Value" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3033,7 +3030,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Blad1"/>
@@ -4912,7 +4909,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" invalid="1" refreshedDate="0" createdVersion="3" recordCount="133" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" invalid="1" refreshedDate="0" createdVersion="3" recordCount="133">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AW134" sheet="Blad1"/>
   </cacheSource>
@@ -6811,7 +6808,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" itemPrintTitles="1" indent="0" compact="0" outline="1" outlineData="1" compactData="0">
   <location ref="A3:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="49">
     <pivotField compact="0" showAll="0"/>
@@ -6968,7 +6965,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -7020,7 +7017,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -7214,69 +7211,69 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AW134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="12" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="11" customWidth="1"/>
     <col min="11" max="11" width="7" style="11" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="12" customWidth="1"/>
     <col min="13" max="13" width="6" style="12" customWidth="1"/>
     <col min="14" max="14" width="15" style="12" customWidth="1"/>
     <col min="15" max="15" width="6" style="12" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="12" customWidth="1"/>
-    <col min="17" max="19" width="9.85546875" style="12" customWidth="1"/>
-    <col min="20" max="21" width="10.42578125" style="11" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" style="11" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" style="12" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" style="11" customWidth="1"/>
-    <col min="25" max="25" width="19.140625" style="11" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" style="11" customWidth="1"/>
-    <col min="27" max="28" width="12.42578125" style="11" customWidth="1"/>
-    <col min="29" max="29" width="11.140625" style="12" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="11" customWidth="1"/>
-    <col min="31" max="31" width="5.85546875" style="12" customWidth="1"/>
-    <col min="32" max="32" width="5.5703125" style="11" customWidth="1"/>
-    <col min="33" max="33" width="7.42578125" style="11" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" style="12" customWidth="1"/>
+    <col min="17" max="19" width="9.83203125" style="12" customWidth="1"/>
+    <col min="20" max="21" width="10.5" style="11" customWidth="1"/>
+    <col min="22" max="22" width="3.6640625" style="11" customWidth="1"/>
+    <col min="23" max="23" width="5.83203125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="11" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" style="11" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" style="11" customWidth="1"/>
+    <col min="27" max="28" width="12.5" style="11" customWidth="1"/>
+    <col min="29" max="29" width="11.1640625" style="12" customWidth="1"/>
+    <col min="30" max="30" width="9.1640625" style="11" customWidth="1"/>
+    <col min="31" max="31" width="5.83203125" style="12" customWidth="1"/>
+    <col min="32" max="32" width="5.5" style="11" customWidth="1"/>
+    <col min="33" max="33" width="7.5" style="11" customWidth="1"/>
+    <col min="34" max="34" width="11.1640625" style="11" customWidth="1"/>
     <col min="35" max="35" width="17" style="11" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="11" customWidth="1"/>
+    <col min="36" max="36" width="11.83203125" style="11" customWidth="1"/>
     <col min="37" max="37" width="9" style="11" customWidth="1"/>
-    <col min="38" max="38" width="35.7109375" style="12" customWidth="1"/>
-    <col min="39" max="39" width="9.140625" style="12" customWidth="1"/>
-    <col min="40" max="40" width="8.140625" style="12" customWidth="1"/>
-    <col min="41" max="41" width="8.140625" style="11" customWidth="1"/>
-    <col min="42" max="42" width="18.42578125" customWidth="1"/>
-    <col min="43" max="43" width="12.28515625" customWidth="1"/>
-    <col min="44" max="46" width="3.140625" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" customWidth="1"/>
+    <col min="38" max="38" width="35.6640625" style="12" customWidth="1"/>
+    <col min="39" max="39" width="9.1640625" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.1640625" style="12" customWidth="1"/>
+    <col min="41" max="41" width="8.1640625" style="11" customWidth="1"/>
+    <col min="42" max="42" width="18.5" customWidth="1"/>
+    <col min="43" max="43" width="12.33203125" customWidth="1"/>
+    <col min="44" max="46" width="3.1640625" customWidth="1"/>
+    <col min="48" max="48" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" s="21" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>45</v>
       </c>
@@ -7425,7 +7422,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49">
       <c r="A2" s="11" t="s">
         <v>85</v>
       </c>
@@ -7463,7 +7460,7 @@
         <v>94</v>
       </c>
       <c r="P2" s="23">
-        <f>Y2-Z2</f>
+        <f t="shared" ref="P2:P33" si="0">Y2-Z2</f>
         <v>750.00000000000045</v>
       </c>
       <c r="Q2" s="12" t="s">
@@ -7488,7 +7485,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="Y2" s="23">
-        <f t="shared" ref="Y2:Y41" si="0">X2*24*60</f>
+        <f t="shared" ref="Y2:Y41" si="1">X2*24*60</f>
         <v>870.00000000000045</v>
       </c>
       <c r="Z2" s="27">
@@ -7498,7 +7495,7 @@
         <v>60</v>
       </c>
       <c r="AB2" s="23">
-        <f t="shared" ref="AB2:AB33" si="1">Z2*2+AA2</f>
+        <f t="shared" ref="AB2:AB33" si="2">Z2*2+AA2</f>
         <v>300</v>
       </c>
       <c r="AD2" s="11" t="s">
@@ -7538,7 +7535,7 @@
         <v>103</v>
       </c>
       <c r="AV2">
-        <f>IF(M2&gt;O2,1,0)</f>
+        <f t="shared" ref="AV2:AV7" si="3">IF(M2&gt;O2,1,0)</f>
         <v>0</v>
       </c>
       <c r="AW2">
@@ -7546,7 +7543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49">
       <c r="A3" s="11" t="s">
         <v>104</v>
       </c>
@@ -7584,7 +7581,7 @@
         <v>110</v>
       </c>
       <c r="P3" s="23">
-        <f>Y3-Z3</f>
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
       <c r="Q3" s="12" t="s">
@@ -7609,7 +7606,7 @@
         <v>0.25</v>
       </c>
       <c r="Y3" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="Z3" s="27">
@@ -7619,7 +7616,7 @@
         <v>15</v>
       </c>
       <c r="AB3" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="AD3" s="11" t="s">
@@ -7656,7 +7653,7 @@
         <v>103</v>
       </c>
       <c r="AV3">
-        <f>IF(M3&gt;O3,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AW3">
@@ -7664,7 +7661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49">
       <c r="A4" s="11" t="s">
         <v>117</v>
       </c>
@@ -7702,7 +7699,7 @@
         <v>110</v>
       </c>
       <c r="P4" s="23">
-        <f>Y4-Z4</f>
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
       <c r="Q4" s="12" t="s">
@@ -7727,7 +7724,7 @@
         <v>0.25</v>
       </c>
       <c r="Y4" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="Z4" s="27">
@@ -7737,7 +7734,7 @@
         <v>15</v>
       </c>
       <c r="AB4" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="AD4" s="11" t="s">
@@ -7765,7 +7762,7 @@
         <v>103</v>
       </c>
       <c r="AV4">
-        <f>IF(M4&gt;O4,1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AW4">
@@ -7773,7 +7770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49">
       <c r="A5" s="11" t="s">
         <v>122</v>
       </c>
@@ -7811,7 +7808,7 @@
         <v>125</v>
       </c>
       <c r="P5" s="23">
-        <f>Y5-Z5</f>
+        <f t="shared" si="0"/>
         <v>444.99999999999949</v>
       </c>
       <c r="Q5" s="12" t="s">
@@ -7836,7 +7833,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y5" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z5" s="27">
@@ -7846,7 +7843,7 @@
         <v>15</v>
       </c>
       <c r="AB5" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="AD5" s="11" t="s">
@@ -7877,7 +7874,7 @@
         <v>2.4</v>
       </c>
       <c r="AV5">
-        <f>IF(M5&gt;O5,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AW5">
@@ -7885,7 +7882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49">
       <c r="A6" s="11" t="s">
         <v>129</v>
       </c>
@@ -7923,7 +7920,7 @@
         <v>125</v>
       </c>
       <c r="P6" s="23">
-        <f>Y6-Z6</f>
+        <f t="shared" si="0"/>
         <v>444.99999999999949</v>
       </c>
       <c r="Q6" s="12" t="s">
@@ -7948,7 +7945,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y6" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z6" s="27">
@@ -7958,7 +7955,7 @@
         <v>15</v>
       </c>
       <c r="AB6" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="AD6" s="11" t="s">
@@ -7989,7 +7986,7 @@
         <v>2.6</v>
       </c>
       <c r="AV6">
-        <f>IF(M6&gt;O6,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AW6">
@@ -7997,7 +7994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49">
       <c r="A7" s="11" t="s">
         <v>135</v>
       </c>
@@ -8035,7 +8032,7 @@
         <v>142</v>
       </c>
       <c r="P7" s="23">
-        <f>Y7-Z7</f>
+        <f t="shared" si="0"/>
         <v>565.00000000000057</v>
       </c>
       <c r="Q7" s="12" t="s">
@@ -8060,7 +8057,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="Y7" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600.00000000000057</v>
       </c>
       <c r="Z7" s="27">
@@ -8070,7 +8067,7 @@
         <v>15</v>
       </c>
       <c r="AB7" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="AD7" s="11" t="s">
@@ -8098,7 +8095,7 @@
         <v>103</v>
       </c>
       <c r="AV7">
-        <f>IF(M7&gt;O7,1,0)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AW7">
@@ -8106,7 +8103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49">
       <c r="A8" s="11" t="s">
         <v>145</v>
       </c>
@@ -8150,7 +8147,7 @@
         <v>142</v>
       </c>
       <c r="P8" s="23">
-        <f>Y8-Z8</f>
+        <f t="shared" si="0"/>
         <v>480.00000000000057</v>
       </c>
       <c r="Q8" s="12" t="s">
@@ -8175,7 +8172,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="Y8" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600.00000000000057</v>
       </c>
       <c r="Z8" s="27">
@@ -8185,7 +8182,7 @@
         <v>60</v>
       </c>
       <c r="AB8" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="AD8" s="11" t="s">
@@ -8232,7 +8229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49">
       <c r="A9" s="11" t="s">
         <v>154</v>
       </c>
@@ -8276,7 +8273,7 @@
         <v>157</v>
       </c>
       <c r="P9" s="23">
-        <f>Y9-Z9</f>
+        <f t="shared" si="0"/>
         <v>629.99999999999955</v>
       </c>
       <c r="Q9" s="25" t="str">
@@ -8302,7 +8299,7 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="Y9" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>749.99999999999955</v>
       </c>
       <c r="Z9" s="27">
@@ -8312,7 +8309,7 @@
         <v>60</v>
       </c>
       <c r="AB9" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="AD9" s="11" t="s">
@@ -8346,7 +8343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49">
       <c r="A10" s="11" t="s">
         <v>159</v>
       </c>
@@ -8390,7 +8387,7 @@
         <v>157</v>
       </c>
       <c r="P10" s="23">
-        <f>Y10-Z10</f>
+        <f t="shared" si="0"/>
         <v>629.99999999999955</v>
       </c>
       <c r="Q10" s="25" t="str">
@@ -8416,7 +8413,7 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="Y10" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>749.99999999999955</v>
       </c>
       <c r="Z10" s="27">
@@ -8426,7 +8423,7 @@
         <v>60</v>
       </c>
       <c r="AB10" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="AD10" s="11" t="s">
@@ -8461,7 +8458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49">
       <c r="A11" s="11" t="s">
         <v>163</v>
       </c>
@@ -8505,7 +8502,7 @@
         <v>110</v>
       </c>
       <c r="P11" s="23">
-        <f>Y11-Z11</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="Q11" s="12" t="s">
@@ -8530,7 +8527,7 @@
         <v>0.25</v>
       </c>
       <c r="Y11" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="Z11" s="27">
@@ -8540,7 +8537,7 @@
         <v>60</v>
       </c>
       <c r="AB11" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="AD11" s="11" t="s">
@@ -8575,7 +8572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49">
       <c r="A12" s="11" t="s">
         <v>166</v>
       </c>
@@ -8619,7 +8616,7 @@
         <v>125</v>
       </c>
       <c r="P12" s="23">
-        <f>Y12-Z12</f>
+        <f t="shared" si="0"/>
         <v>359.99999999999949</v>
       </c>
       <c r="Q12" s="12" t="s">
@@ -8644,7 +8641,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y12" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z12" s="27">
@@ -8654,7 +8651,7 @@
         <v>60</v>
       </c>
       <c r="AB12" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="AD12" s="11" t="s">
@@ -8692,7 +8689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49">
       <c r="A13" s="11" t="s">
         <v>171</v>
       </c>
@@ -8736,7 +8733,7 @@
         <v>173</v>
       </c>
       <c r="P13" s="23">
-        <f>Y13-Z13</f>
+        <f t="shared" si="0"/>
         <v>539.99999999999943</v>
       </c>
       <c r="Q13" s="25" t="str">
@@ -8762,7 +8759,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="Y13" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>659.99999999999943</v>
       </c>
       <c r="Z13" s="27">
@@ -8772,7 +8769,7 @@
         <v>60</v>
       </c>
       <c r="AB13" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="AD13" s="11" t="s">
@@ -8807,7 +8804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49">
       <c r="A14" s="11" t="s">
         <v>85</v>
       </c>
@@ -8845,7 +8842,7 @@
         <v>94</v>
       </c>
       <c r="P14" s="23">
-        <f>Y14-Z14</f>
+        <f t="shared" si="0"/>
         <v>835.00000000000045</v>
       </c>
       <c r="Q14" s="12" t="s">
@@ -8870,7 +8867,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="Y14" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>870.00000000000045</v>
       </c>
       <c r="Z14" s="27">
@@ -8880,7 +8877,7 @@
         <v>15</v>
       </c>
       <c r="AB14" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="AD14" s="11" t="s">
@@ -8922,7 +8919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49">
       <c r="A15" s="11" t="s">
         <v>175</v>
       </c>
@@ -8957,7 +8954,7 @@
         <v>180</v>
       </c>
       <c r="P15" s="23">
-        <f>Y15-Z15</f>
+        <f t="shared" si="0"/>
         <v>565.00000000000057</v>
       </c>
       <c r="Q15" s="12" t="s">
@@ -8982,7 +8979,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="Y15" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600.00000000000057</v>
       </c>
       <c r="Z15" s="27">
@@ -8992,7 +8989,7 @@
         <v>15</v>
       </c>
       <c r="AB15" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="AC15" s="12" t="s">
@@ -9043,7 +9040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49">
       <c r="A16" s="11" t="s">
         <v>190</v>
       </c>
@@ -9087,7 +9084,7 @@
         <v>194</v>
       </c>
       <c r="P16" s="23">
-        <f>Y16-Z16</f>
+        <f t="shared" si="0"/>
         <v>660.00000000000045</v>
       </c>
       <c r="Q16" s="25" t="str">
@@ -9113,7 +9110,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="Y16" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>780.00000000000045</v>
       </c>
       <c r="Z16" s="27">
@@ -9123,7 +9120,7 @@
         <v>60</v>
       </c>
       <c r="AB16" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="AC16" s="12" t="s">
@@ -9170,7 +9167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49">
       <c r="A17" s="11" t="s">
         <v>201</v>
       </c>
@@ -9208,7 +9205,7 @@
         <v>110</v>
       </c>
       <c r="P17" s="23">
-        <f>Y17-Z17</f>
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
       <c r="Q17" s="12" t="s">
@@ -9233,7 +9230,7 @@
         <v>0.25</v>
       </c>
       <c r="Y17" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
       <c r="Z17" s="27">
@@ -9243,7 +9240,7 @@
         <v>15</v>
       </c>
       <c r="AB17" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="AD17" s="11" t="s">
@@ -9271,14 +9268,14 @@
         <v>103</v>
       </c>
       <c r="AV17">
-        <f>IF(M17&gt;O17,1,0)</f>
+        <f t="shared" ref="AV17:AV31" si="4">IF(M17&gt;O17,1,0)</f>
         <v>1</v>
       </c>
       <c r="AW17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49">
       <c r="A18" s="11" t="s">
         <v>208</v>
       </c>
@@ -9316,7 +9313,7 @@
         <v>215</v>
       </c>
       <c r="P18" s="23">
-        <f>Y18-Z18</f>
+        <f t="shared" si="0"/>
         <v>419.99999999999949</v>
       </c>
       <c r="Q18" s="12" t="s">
@@ -9341,7 +9338,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y18" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z18" s="27">
@@ -9351,7 +9348,7 @@
         <v>60</v>
       </c>
       <c r="AB18" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="AC18" s="12" t="s">
@@ -9397,7 +9394,7 @@
         <v>189</v>
       </c>
       <c r="AV18">
-        <f>IF(M18&gt;O18,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW18">
@@ -9405,7 +9402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49">
       <c r="A19" s="11" t="s">
         <v>222</v>
       </c>
@@ -9443,7 +9440,7 @@
         <v>225</v>
       </c>
       <c r="P19" s="23">
-        <f>Y19-Z19</f>
+        <f t="shared" si="0"/>
         <v>540.00000000000057</v>
       </c>
       <c r="Q19" s="12" t="s">
@@ -9468,7 +9465,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="Y19" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600.00000000000057</v>
       </c>
       <c r="Z19" s="27">
@@ -9478,7 +9475,7 @@
         <v>60</v>
       </c>
       <c r="AB19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="AC19" s="12" t="s">
@@ -9524,14 +9521,14 @@
         <v>189</v>
       </c>
       <c r="AV19">
-        <f>IF(M19&gt;O19,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49">
       <c r="A20" s="11" t="s">
         <v>228</v>
       </c>
@@ -9569,7 +9566,7 @@
         <v>231</v>
       </c>
       <c r="P20" s="23">
-        <f>Y20-Z20</f>
+        <f t="shared" si="0"/>
         <v>630.00000000000057</v>
       </c>
       <c r="Q20" s="12" t="s">
@@ -9594,7 +9591,7 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="Y20" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>690.00000000000057</v>
       </c>
       <c r="Z20" s="27">
@@ -9604,7 +9601,7 @@
         <v>60</v>
       </c>
       <c r="AB20" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="AC20" s="12" t="s">
@@ -9650,7 +9647,7 @@
         <v>189</v>
       </c>
       <c r="AV20">
-        <f>IF(M20&gt;O20,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW20">
@@ -9658,7 +9655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49">
       <c r="A21" s="11" t="s">
         <v>233</v>
       </c>
@@ -9696,7 +9693,7 @@
         <v>236</v>
       </c>
       <c r="P21" s="23">
-        <f>Y21-Z21</f>
+        <f t="shared" si="0"/>
         <v>840</v>
       </c>
       <c r="Q21" s="12" t="s">
@@ -9721,7 +9718,7 @@
         <v>0.625</v>
       </c>
       <c r="Y21" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="Z21" s="27">
@@ -9731,7 +9728,7 @@
         <v>60</v>
       </c>
       <c r="AB21" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="AC21" s="12" t="s">
@@ -9777,14 +9774,14 @@
         <v>189</v>
       </c>
       <c r="AV21">
-        <f>IF(M21&gt;O21,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW21">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49">
       <c r="A22" s="11" t="s">
         <v>239</v>
       </c>
@@ -9819,7 +9816,7 @@
         <v>173</v>
       </c>
       <c r="P22" s="23">
-        <f>Y22-Z22</f>
+        <f t="shared" si="0"/>
         <v>629.99999999999943</v>
       </c>
       <c r="Q22" s="12" t="s">
@@ -9844,7 +9841,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="Y22" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>659.99999999999943</v>
       </c>
       <c r="Z22" s="27">
@@ -9854,7 +9851,7 @@
         <v>60</v>
       </c>
       <c r="AB22" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="AC22" s="12" t="s">
@@ -9894,7 +9891,7 @@
         <v>248</v>
       </c>
       <c r="AV22">
-        <f>IF(M22&gt;O22,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AW22">
@@ -9902,7 +9899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49">
       <c r="A23" s="11" t="s">
         <v>249</v>
       </c>
@@ -9937,7 +9934,7 @@
         <v>254</v>
       </c>
       <c r="P23" s="23">
-        <f>Y23-Z23</f>
+        <f t="shared" si="0"/>
         <v>760.99999999999932</v>
       </c>
       <c r="Q23" s="12" t="s">
@@ -9962,7 +9959,7 @@
         <v>0.563194444444444</v>
       </c>
       <c r="Y23" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>810.99999999999932</v>
       </c>
       <c r="Z23" s="27">
@@ -9972,7 +9969,7 @@
         <v>60</v>
       </c>
       <c r="AB23" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="AC23" s="12" t="s">
@@ -10018,7 +10015,7 @@
         <v>189</v>
       </c>
       <c r="AV23">
-        <f>IF(M23&gt;O23,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW23">
@@ -10026,7 +10023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49">
       <c r="A24" s="11" t="s">
         <v>261</v>
       </c>
@@ -10061,7 +10058,7 @@
         <v>264</v>
       </c>
       <c r="P24" s="23">
-        <f>Y24-Z24</f>
+        <f t="shared" si="0"/>
         <v>850</v>
       </c>
       <c r="Q24" s="12" t="s">
@@ -10086,7 +10083,7 @@
         <v>0.625</v>
       </c>
       <c r="Y24" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="Z24" s="27">
@@ -10096,7 +10093,7 @@
         <v>60</v>
       </c>
       <c r="AB24" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="AC24" s="12" t="s">
@@ -10142,7 +10139,7 @@
         <v>189</v>
       </c>
       <c r="AV24">
-        <f>IF(M24&gt;O24,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW24">
@@ -10150,7 +10147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49">
       <c r="A25" s="11" t="s">
         <v>267</v>
       </c>
@@ -10185,7 +10182,7 @@
         <v>270</v>
       </c>
       <c r="P25" s="23">
-        <f>Y25-Z25</f>
+        <f t="shared" si="0"/>
         <v>850.99999999999932</v>
       </c>
       <c r="Q25" s="12" t="s">
@@ -10210,7 +10207,7 @@
         <v>0.625694444444444</v>
       </c>
       <c r="Y25" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>900.99999999999932</v>
       </c>
       <c r="Z25" s="27">
@@ -10220,7 +10217,7 @@
         <v>60</v>
       </c>
       <c r="AB25" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="AC25" s="12" t="s">
@@ -10266,7 +10263,7 @@
         <v>189</v>
       </c>
       <c r="AV25">
-        <f>IF(M25&gt;O25,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW25">
@@ -10274,7 +10271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49">
       <c r="A26" s="11" t="s">
         <v>239</v>
       </c>
@@ -10312,7 +10309,7 @@
         <v>277</v>
       </c>
       <c r="P26" s="23">
-        <f>Y26-Z26</f>
+        <f t="shared" si="0"/>
         <v>429.99999999999949</v>
       </c>
       <c r="Q26" s="12" t="s">
@@ -10337,7 +10334,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y26" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z26" s="27">
@@ -10347,7 +10344,7 @@
         <v>60</v>
       </c>
       <c r="AB26" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="AC26" s="12" t="s">
@@ -10381,7 +10378,7 @@
         <v>282</v>
       </c>
       <c r="AV26">
-        <f>IF(M26&gt;O26,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW26">
@@ -10389,7 +10386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49">
       <c r="A27" s="11" t="s">
         <v>283</v>
       </c>
@@ -10427,7 +10424,7 @@
         <v>277</v>
       </c>
       <c r="P27" s="23">
-        <f>Y27-Z27</f>
+        <f t="shared" si="0"/>
         <v>429.99999999999949</v>
       </c>
       <c r="Q27" s="12" t="s">
@@ -10452,7 +10449,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y27" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z27" s="27">
@@ -10462,7 +10459,7 @@
         <v>60</v>
       </c>
       <c r="AB27" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="AC27" s="12" t="s">
@@ -10499,14 +10496,14 @@
         <v>282</v>
       </c>
       <c r="AV27">
-        <f>IF(M27&gt;O27,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW27">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49">
       <c r="A28" s="11" t="s">
         <v>289</v>
       </c>
@@ -10544,7 +10541,7 @@
         <v>293</v>
       </c>
       <c r="P28" s="23">
-        <f>Y28-Z28</f>
+        <f t="shared" si="0"/>
         <v>550.00000000000057</v>
       </c>
       <c r="Q28" s="12" t="s">
@@ -10569,7 +10566,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="Y28" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600.00000000000057</v>
       </c>
       <c r="Z28" s="27">
@@ -10579,7 +10576,7 @@
         <v>60</v>
       </c>
       <c r="AB28" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="AC28" s="12" t="s">
@@ -10619,7 +10616,7 @@
         <v>7.6</v>
       </c>
       <c r="AV28">
-        <f>IF(M28&gt;O28,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW28">
@@ -10627,7 +10624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49">
       <c r="A29" s="11" t="s">
         <v>295</v>
       </c>
@@ -10665,7 +10662,7 @@
         <v>300</v>
       </c>
       <c r="P29" s="23">
-        <f>Y29-Z29</f>
+        <f t="shared" si="0"/>
         <v>670</v>
       </c>
       <c r="Q29" s="12" t="s">
@@ -10690,7 +10687,7 @@
         <v>0.5</v>
       </c>
       <c r="Y29" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="Z29" s="27">
@@ -10700,7 +10697,7 @@
         <v>60</v>
       </c>
       <c r="AB29" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="AC29" s="12" t="s">
@@ -10740,7 +10737,7 @@
         <v>9.9</v>
       </c>
       <c r="AV29">
-        <f>IF(M29&gt;O29,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW29">
@@ -10748,7 +10745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49">
       <c r="A30" s="11" t="s">
         <v>303</v>
       </c>
@@ -10783,7 +10780,7 @@
         <v>307</v>
       </c>
       <c r="P30" s="23">
-        <f>Y30-Z30</f>
+        <f t="shared" si="0"/>
         <v>910.00000000000045</v>
       </c>
       <c r="Q30" s="12" t="s">
@@ -10808,7 +10805,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="Y30" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>960.00000000000045</v>
       </c>
       <c r="Z30" s="27">
@@ -10818,7 +10815,7 @@
         <v>60</v>
       </c>
       <c r="AB30" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="AD30" s="11" t="s">
@@ -10858,7 +10855,7 @@
         <v>248</v>
       </c>
       <c r="AV30">
-        <f>IF(M30&gt;O30,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW30">
@@ -10866,7 +10863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49">
       <c r="A31" s="11" t="s">
         <v>311</v>
       </c>
@@ -10901,7 +10898,7 @@
         <v>307</v>
       </c>
       <c r="P31" s="23">
-        <f>Y31-Z31</f>
+        <f t="shared" si="0"/>
         <v>910.00000000000045</v>
       </c>
       <c r="Q31" s="12" t="s">
@@ -10926,7 +10923,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="Y31" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>960.00000000000045</v>
       </c>
       <c r="Z31" s="27">
@@ -10936,7 +10933,7 @@
         <v>60</v>
       </c>
       <c r="AB31" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="AD31" s="11" t="s">
@@ -10976,14 +10973,14 @@
         <v>248</v>
       </c>
       <c r="AV31">
-        <f>IF(M31&gt;O31,1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW31">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49">
       <c r="A32" s="11" t="s">
         <v>314</v>
       </c>
@@ -11021,7 +11018,7 @@
         <v>319</v>
       </c>
       <c r="P32" s="23">
-        <f>Y32-Z32</f>
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
       <c r="Q32" s="12" t="s">
@@ -11046,7 +11043,7 @@
         <v>0.375</v>
       </c>
       <c r="Y32" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="Z32" s="27">
@@ -11056,7 +11053,7 @@
         <v>60</v>
       </c>
       <c r="AB32" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="AC32" s="12" t="s">
@@ -11109,7 +11106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:49">
       <c r="A33" s="11" t="s">
         <v>323</v>
       </c>
@@ -11144,7 +11141,7 @@
         <v>319</v>
       </c>
       <c r="P33" s="23">
-        <f>Y33-Z33</f>
+        <f t="shared" si="0"/>
         <v>525</v>
       </c>
       <c r="Q33" s="12" t="s">
@@ -11169,7 +11166,7 @@
         <v>0.375</v>
       </c>
       <c r="Y33" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="Z33" s="27">
@@ -11179,7 +11176,7 @@
         <v>60</v>
       </c>
       <c r="AB33" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="AC33" s="12" t="s">
@@ -11225,7 +11222,7 @@
         <v>189</v>
       </c>
       <c r="AV33">
-        <f>IF(M33&gt;O33,1,0)</f>
+        <f t="shared" ref="AV33:AV39" si="5">IF(M33&gt;O33,1,0)</f>
         <v>0</v>
       </c>
       <c r="AW33">
@@ -11233,7 +11230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:49">
       <c r="A34" s="11" t="s">
         <v>327</v>
       </c>
@@ -11268,7 +11265,7 @@
         <v>330</v>
       </c>
       <c r="P34" s="23">
-        <f>Y34-Z34</f>
+        <f t="shared" ref="P34:P65" si="6">Y34-Z34</f>
         <v>585.00000000000057</v>
       </c>
       <c r="Q34" s="12" t="s">
@@ -11293,7 +11290,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="Y34" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>600.00000000000057</v>
       </c>
       <c r="Z34" s="27">
@@ -11303,7 +11300,7 @@
         <v>60</v>
       </c>
       <c r="AB34" s="23">
-        <f t="shared" ref="AB34:AB65" si="2">Z34*2+AA34</f>
+        <f t="shared" ref="AB34:AB65" si="7">Z34*2+AA34</f>
         <v>90</v>
       </c>
       <c r="AC34" s="12" t="s">
@@ -11349,7 +11346,7 @@
         <v>189</v>
       </c>
       <c r="AV34">
-        <f>IF(M34&gt;O34,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AW34">
@@ -11357,7 +11354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:49">
       <c r="A35" s="11" t="s">
         <v>331</v>
       </c>
@@ -11395,7 +11392,7 @@
         <v>334</v>
       </c>
       <c r="P35" s="23">
-        <f>Y35-Z35</f>
+        <f t="shared" si="6"/>
         <v>824.99999999999955</v>
       </c>
       <c r="Q35" s="12" t="s">
@@ -11420,7 +11417,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="Y35" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>839.99999999999955</v>
       </c>
       <c r="Z35" s="27">
@@ -11430,7 +11427,7 @@
         <v>60</v>
       </c>
       <c r="AB35" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="AC35" s="12" t="s">
@@ -11476,14 +11473,14 @@
         <v>189</v>
       </c>
       <c r="AV35">
-        <f>IF(M35&gt;O35,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AW35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:49">
       <c r="A36" s="11" t="s">
         <v>314</v>
       </c>
@@ -11521,7 +11518,7 @@
         <v>319</v>
       </c>
       <c r="P36" s="23">
-        <f>Y36-Z36</f>
+        <f t="shared" si="6"/>
         <v>525</v>
       </c>
       <c r="Q36" s="12" t="s">
@@ -11546,7 +11543,7 @@
         <v>0.375</v>
       </c>
       <c r="Y36" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="Z36" s="27">
@@ -11556,7 +11553,7 @@
         <v>60</v>
       </c>
       <c r="AB36" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="AC36" s="12" t="s">
@@ -11596,7 +11593,7 @@
         <v>103</v>
       </c>
       <c r="AV36">
-        <f>IF(M36&gt;O36,1,0)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AW36">
@@ -11604,7 +11601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:49">
       <c r="A37" s="11" t="s">
         <v>337</v>
       </c>
@@ -11642,7 +11639,7 @@
         <v>225</v>
       </c>
       <c r="P37" s="23">
-        <f>Y37-Z37</f>
+        <f t="shared" si="6"/>
         <v>510</v>
       </c>
       <c r="Q37" s="12" t="s">
@@ -11667,7 +11664,7 @@
         <v>0.375</v>
       </c>
       <c r="Y37" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="Z37" s="27">
@@ -11677,7 +11674,7 @@
         <v>60</v>
       </c>
       <c r="AB37" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="AD37" s="11" t="s">
@@ -11714,7 +11711,7 @@
         <v>103</v>
       </c>
       <c r="AV37">
-        <f>IF(M37&gt;O37,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AW37">
@@ -11722,7 +11719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:49">
       <c r="A38" s="11" t="s">
         <v>343</v>
       </c>
@@ -11760,7 +11757,7 @@
         <v>173</v>
       </c>
       <c r="P38" s="23">
-        <f>Y38-Z38</f>
+        <f t="shared" si="6"/>
         <v>629.99999999999943</v>
       </c>
       <c r="Q38" s="12" t="s">
@@ -11785,7 +11782,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="Y38" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>659.99999999999943</v>
       </c>
       <c r="Z38" s="27">
@@ -11795,7 +11792,7 @@
         <v>60</v>
       </c>
       <c r="AB38" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="AD38" s="11" t="s">
@@ -11832,14 +11829,14 @@
         <v>103</v>
       </c>
       <c r="AV38">
-        <f>IF(M38&gt;O38,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AW38">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:49">
       <c r="A39" s="11" t="s">
         <v>347</v>
       </c>
@@ -11877,7 +11874,7 @@
         <v>215</v>
       </c>
       <c r="P39" s="23">
-        <f>Y39-Z39</f>
+        <f t="shared" si="6"/>
         <v>385.00000000000051</v>
       </c>
       <c r="Q39" s="12" t="s">
@@ -11902,7 +11899,7 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="Y39" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>420.00000000000051</v>
       </c>
       <c r="Z39" s="27">
@@ -11912,7 +11909,7 @@
         <v>15</v>
       </c>
       <c r="AB39" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="AD39" s="11" t="s">
@@ -11946,7 +11943,7 @@
         <v>2.4</v>
       </c>
       <c r="AV39">
-        <f>IF(M39&gt;O39,1,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AW39">
@@ -11954,7 +11951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:49">
       <c r="A40" s="11" t="s">
         <v>354</v>
       </c>
@@ -11998,7 +11995,7 @@
         <v>359</v>
       </c>
       <c r="P40" s="23">
-        <f>Y40-Z40</f>
+        <f t="shared" si="6"/>
         <v>899.99999999999955</v>
       </c>
       <c r="Q40" s="25" t="str">
@@ -12021,7 +12018,7 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="Y40" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1019.9999999999995</v>
       </c>
       <c r="Z40" s="27">
@@ -12031,7 +12028,7 @@
         <v>60</v>
       </c>
       <c r="AB40" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="AD40" s="11" t="s">
@@ -12074,7 +12071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:49">
       <c r="A41" s="11" t="s">
         <v>364</v>
       </c>
@@ -12118,7 +12115,7 @@
         <v>359</v>
       </c>
       <c r="P41" s="23">
-        <f>Y41-Z41</f>
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
       <c r="Q41" s="25" t="str">
@@ -12141,7 +12138,7 @@
         <v>0.5</v>
       </c>
       <c r="Y41" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>720</v>
       </c>
       <c r="Z41" s="27">
@@ -12151,7 +12148,7 @@
         <v>60</v>
       </c>
       <c r="AB41" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="AD41" s="11" t="s">
@@ -12194,7 +12191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:49">
       <c r="A42" s="11" t="s">
         <v>367</v>
       </c>
@@ -12232,7 +12229,7 @@
         <v>372</v>
       </c>
       <c r="P42" s="23">
-        <f>Y42-Z42</f>
+        <f t="shared" si="6"/>
         <v>565.00000000000057</v>
       </c>
       <c r="Q42" s="12" t="s">
@@ -12267,7 +12264,7 @@
         <v>60</v>
       </c>
       <c r="AB42" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="AC42" s="12" t="s">
@@ -12310,7 +12307,7 @@
         <v>189</v>
       </c>
       <c r="AV42">
-        <f>IF(M42&gt;O42,1,0)</f>
+        <f t="shared" ref="AV42:AV60" si="8">IF(M42&gt;O42,1,0)</f>
         <v>0</v>
       </c>
       <c r="AW42">
@@ -12318,7 +12315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:49">
       <c r="A43" s="11" t="s">
         <v>377</v>
       </c>
@@ -12356,7 +12353,7 @@
         <v>372</v>
       </c>
       <c r="P43" s="23">
-        <f>Y43-Z43</f>
+        <f t="shared" si="6"/>
         <v>685</v>
       </c>
       <c r="Q43" s="12" t="s">
@@ -12391,7 +12388,7 @@
         <v>60</v>
       </c>
       <c r="AB43" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="AC43" s="12" t="s">
@@ -12434,14 +12431,14 @@
         <v>189</v>
       </c>
       <c r="AV43">
-        <f>IF(M43&gt;O43,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW43">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:49">
       <c r="A44" s="11" t="s">
         <v>380</v>
       </c>
@@ -12479,7 +12476,7 @@
         <v>372</v>
       </c>
       <c r="P44" s="23">
-        <f>Y44-Z44</f>
+        <f t="shared" si="6"/>
         <v>685</v>
       </c>
       <c r="Q44" s="12" t="s">
@@ -12504,7 +12501,7 @@
         <v>0.5</v>
       </c>
       <c r="Y44" s="23">
-        <f t="shared" ref="Y44:Y75" si="3">X44*24*60</f>
+        <f t="shared" ref="Y44:Y75" si="9">X44*24*60</f>
         <v>720</v>
       </c>
       <c r="Z44" s="27">
@@ -12514,7 +12511,7 @@
         <v>60</v>
       </c>
       <c r="AB44" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="AC44" s="12" t="s">
@@ -12557,7 +12554,7 @@
         <v>189</v>
       </c>
       <c r="AV44">
-        <f>IF(M44&gt;O44,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW44">
@@ -12565,7 +12562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:49">
       <c r="A45" s="11" t="s">
         <v>383</v>
       </c>
@@ -12603,7 +12600,7 @@
         <v>372</v>
       </c>
       <c r="P45" s="23">
-        <f>Y45-Z45</f>
+        <f t="shared" si="6"/>
         <v>685</v>
       </c>
       <c r="Q45" s="12" t="s">
@@ -12628,7 +12625,7 @@
         <v>0.5</v>
       </c>
       <c r="Y45" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>720</v>
       </c>
       <c r="Z45" s="27">
@@ -12638,7 +12635,7 @@
         <v>60</v>
       </c>
       <c r="AB45" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="AC45" s="12" t="s">
@@ -12681,14 +12678,14 @@
         <v>189</v>
       </c>
       <c r="AV45">
-        <f>IF(M45&gt;O45,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW45">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:49">
       <c r="A46" s="11" t="s">
         <v>386</v>
       </c>
@@ -12726,7 +12723,7 @@
         <v>389</v>
       </c>
       <c r="P46" s="23">
-        <f>Y46-Z46</f>
+        <f t="shared" si="6"/>
         <v>804.99999999999955</v>
       </c>
       <c r="Q46" s="12" t="s">
@@ -12751,7 +12748,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="Y46" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>839.99999999999955</v>
       </c>
       <c r="Z46" s="27">
@@ -12761,7 +12758,7 @@
         <v>60</v>
       </c>
       <c r="AB46" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="AC46" s="12" t="s">
@@ -12804,14 +12801,14 @@
         <v>189</v>
       </c>
       <c r="AV46">
-        <f>IF(M46&gt;O46,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW46">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:49">
       <c r="A47" s="11" t="s">
         <v>390</v>
       </c>
@@ -12846,7 +12843,7 @@
         <v>194</v>
       </c>
       <c r="P47" s="23">
-        <f>Y47-Z47</f>
+        <f t="shared" si="6"/>
         <v>464.99999999999949</v>
       </c>
       <c r="Q47" s="12" t="s">
@@ -12871,7 +12868,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y47" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z47" s="27">
@@ -12881,7 +12878,7 @@
         <v>20</v>
       </c>
       <c r="AB47" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AC47" s="12" t="s">
@@ -12924,7 +12921,7 @@
         <v>189</v>
       </c>
       <c r="AV47">
-        <f>IF(M47&gt;O47,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AW47">
@@ -12932,7 +12929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:49">
       <c r="A48" s="11" t="s">
         <v>396</v>
       </c>
@@ -12967,7 +12964,7 @@
         <v>194</v>
       </c>
       <c r="P48" s="23">
-        <f>Y48-Z48</f>
+        <f t="shared" si="6"/>
         <v>495.00000000000051</v>
       </c>
       <c r="Q48" s="12" t="s">
@@ -12992,7 +12989,7 @@
         <v>0.35416666666666702</v>
       </c>
       <c r="Y48" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>510.00000000000051</v>
       </c>
       <c r="Z48" s="27">
@@ -13002,7 +12999,7 @@
         <v>20</v>
       </c>
       <c r="AB48" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AC48" s="12" t="s">
@@ -13045,7 +13042,7 @@
         <v>189</v>
       </c>
       <c r="AV48">
-        <f>IF(M48&gt;O48,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AW48">
@@ -13053,7 +13050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:49">
       <c r="A49" s="11" t="s">
         <v>400</v>
       </c>
@@ -13088,7 +13085,7 @@
         <v>194</v>
       </c>
       <c r="P49" s="23">
-        <f>Y49-Z49</f>
+        <f t="shared" si="6"/>
         <v>525</v>
       </c>
       <c r="Q49" s="12" t="s">
@@ -13113,7 +13110,7 @@
         <v>0.375</v>
       </c>
       <c r="Y49" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>540</v>
       </c>
       <c r="Z49" s="27">
@@ -13123,7 +13120,7 @@
         <v>20</v>
       </c>
       <c r="AB49" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AC49" s="12" t="s">
@@ -13166,7 +13163,7 @@
         <v>189</v>
       </c>
       <c r="AV49">
-        <f>IF(M49&gt;O49,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AW49">
@@ -13174,7 +13171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:49">
       <c r="A50" s="11" t="s">
         <v>404</v>
       </c>
@@ -13209,7 +13206,7 @@
         <v>194</v>
       </c>
       <c r="P50" s="23">
-        <f>Y50-Z50</f>
+        <f t="shared" si="6"/>
         <v>554.99999999999943</v>
       </c>
       <c r="Q50" s="12" t="s">
@@ -13234,7 +13231,7 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="Y50" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>569.99999999999943</v>
       </c>
       <c r="Z50" s="27">
@@ -13244,7 +13241,7 @@
         <v>20</v>
       </c>
       <c r="AB50" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AC50" s="12" t="s">
@@ -13287,7 +13284,7 @@
         <v>189</v>
       </c>
       <c r="AV50">
-        <f>IF(M50&gt;O50,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AW50">
@@ -13295,7 +13292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:49">
       <c r="A51" s="11" t="s">
         <v>408</v>
       </c>
@@ -13330,7 +13327,7 @@
         <v>194</v>
       </c>
       <c r="P51" s="23">
-        <f>Y51-Z51</f>
+        <f t="shared" si="6"/>
         <v>585.00000000000057</v>
       </c>
       <c r="Q51" s="12" t="s">
@@ -13355,7 +13352,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="Y51" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>600.00000000000057</v>
       </c>
       <c r="Z51" s="27">
@@ -13365,7 +13362,7 @@
         <v>20</v>
       </c>
       <c r="AB51" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AC51" s="12" t="s">
@@ -13408,7 +13405,7 @@
         <v>189</v>
       </c>
       <c r="AV51">
-        <f>IF(M51&gt;O51,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AW51">
@@ -13416,7 +13413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:49">
       <c r="A52" s="11" t="s">
         <v>412</v>
       </c>
@@ -13451,7 +13448,7 @@
         <v>415</v>
       </c>
       <c r="P52" s="23">
-        <f>Y52-Z52</f>
+        <f t="shared" si="6"/>
         <v>615</v>
       </c>
       <c r="Q52" s="12" t="s">
@@ -13476,7 +13473,7 @@
         <v>0.4375</v>
       </c>
       <c r="Y52" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>630</v>
       </c>
       <c r="Z52" s="27">
@@ -13486,7 +13483,7 @@
         <v>20</v>
       </c>
       <c r="AB52" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AC52" s="12" t="s">
@@ -13529,7 +13526,7 @@
         <v>189</v>
       </c>
       <c r="AV52">
-        <f>IF(M52&gt;O52,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW52">
@@ -13537,7 +13534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:49">
       <c r="A53" s="11" t="s">
         <v>417</v>
       </c>
@@ -13572,7 +13569,7 @@
         <v>420</v>
       </c>
       <c r="P53" s="23">
-        <f>Y53-Z53</f>
+        <f t="shared" si="6"/>
         <v>644.99999999999943</v>
       </c>
       <c r="Q53" s="12" t="s">
@@ -13597,7 +13594,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="Y53" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>659.99999999999943</v>
       </c>
       <c r="Z53" s="27">
@@ -13607,7 +13604,7 @@
         <v>20</v>
       </c>
       <c r="AB53" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AC53" s="12" t="s">
@@ -13650,7 +13647,7 @@
         <v>189</v>
       </c>
       <c r="AV53">
-        <f>IF(M53&gt;O53,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW53">
@@ -13658,7 +13655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:49">
       <c r="A54" s="11" t="s">
         <v>422</v>
       </c>
@@ -13693,7 +13690,7 @@
         <v>425</v>
       </c>
       <c r="P54" s="23">
-        <f>Y54-Z54</f>
+        <f t="shared" si="6"/>
         <v>675.00000000000057</v>
       </c>
       <c r="Q54" s="12" t="s">
@@ -13718,7 +13715,7 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="Y54" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>690.00000000000057</v>
       </c>
       <c r="Z54" s="27">
@@ -13728,7 +13725,7 @@
         <v>20</v>
       </c>
       <c r="AB54" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AC54" s="12" t="s">
@@ -13771,14 +13768,14 @@
         <v>189</v>
       </c>
       <c r="AV54">
-        <f>IF(M54&gt;O54,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW54">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:49">
       <c r="A55" s="11" t="s">
         <v>427</v>
       </c>
@@ -13813,7 +13810,7 @@
         <v>430</v>
       </c>
       <c r="P55" s="23">
-        <f>Y55-Z55</f>
+        <f t="shared" si="6"/>
         <v>734.99999999999955</v>
       </c>
       <c r="Q55" s="12" t="s">
@@ -13838,7 +13835,7 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="Y55" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>749.99999999999955</v>
       </c>
       <c r="Z55" s="27">
@@ -13848,7 +13845,7 @@
         <v>20</v>
       </c>
       <c r="AB55" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AC55" s="12" t="s">
@@ -13891,7 +13888,7 @@
         <v>189</v>
       </c>
       <c r="AV55">
-        <f>IF(M55&gt;O55,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW55">
@@ -13899,7 +13896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:49">
       <c r="A56" s="11" t="s">
         <v>432</v>
       </c>
@@ -13934,7 +13931,7 @@
         <v>435</v>
       </c>
       <c r="P56" s="23">
-        <f>Y56-Z56</f>
+        <f t="shared" si="6"/>
         <v>765.00000000000045</v>
       </c>
       <c r="Q56" s="12" t="s">
@@ -13959,7 +13956,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="Y56" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>780.00000000000045</v>
       </c>
       <c r="Z56" s="27">
@@ -13969,7 +13966,7 @@
         <v>20</v>
       </c>
       <c r="AB56" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AC56" s="12" t="s">
@@ -14012,7 +14009,7 @@
         <v>189</v>
       </c>
       <c r="AV56">
-        <f>IF(M56&gt;O56,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW56">
@@ -14020,7 +14017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:49">
       <c r="A57" s="11" t="s">
         <v>437</v>
       </c>
@@ -14055,7 +14052,7 @@
         <v>440</v>
       </c>
       <c r="P57" s="23">
-        <f>Y57-Z57</f>
+        <f t="shared" si="6"/>
         <v>795</v>
       </c>
       <c r="Q57" s="12" t="s">
@@ -14080,7 +14077,7 @@
         <v>0.5625</v>
       </c>
       <c r="Y57" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>810</v>
       </c>
       <c r="Z57" s="27">
@@ -14090,7 +14087,7 @@
         <v>20</v>
       </c>
       <c r="AB57" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AC57" s="12" t="s">
@@ -14133,14 +14130,14 @@
         <v>189</v>
       </c>
       <c r="AV57">
-        <f>IF(M57&gt;O57,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW57">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:49">
       <c r="A58" s="11" t="s">
         <v>443</v>
       </c>
@@ -14175,7 +14172,7 @@
         <v>446</v>
       </c>
       <c r="P58" s="23">
-        <f>Y58-Z58</f>
+        <f t="shared" si="6"/>
         <v>824.99999999999955</v>
       </c>
       <c r="Q58" s="12" t="s">
@@ -14200,7 +14197,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="Y58" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>839.99999999999955</v>
       </c>
       <c r="Z58" s="27">
@@ -14210,7 +14207,7 @@
         <v>20</v>
       </c>
       <c r="AB58" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AC58" s="12" t="s">
@@ -14253,14 +14250,14 @@
         <v>189</v>
       </c>
       <c r="AV58">
-        <f>IF(M58&gt;O58,1,0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AW58">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:49">
       <c r="A59" s="11" t="s">
         <v>448</v>
       </c>
@@ -14298,7 +14295,7 @@
         <v>215</v>
       </c>
       <c r="P59" s="23">
-        <f>Y59-Z59</f>
+        <f t="shared" si="6"/>
         <v>454.99999999999949</v>
       </c>
       <c r="Q59" s="12" t="s">
@@ -14323,7 +14320,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y59" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z59" s="27">
@@ -14333,7 +14330,7 @@
         <v>60</v>
       </c>
       <c r="AB59" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="AD59" s="11" t="s">
@@ -14373,14 +14370,14 @@
         <v>282</v>
       </c>
       <c r="AV59">
-        <f>IF(M59&gt;O59,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AW59">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:49">
       <c r="A60" s="11" t="s">
         <v>455</v>
       </c>
@@ -14418,7 +14415,7 @@
         <v>458</v>
       </c>
       <c r="P60" s="23">
-        <f>Y60-Z60</f>
+        <f t="shared" si="6"/>
         <v>770.00000000000045</v>
       </c>
       <c r="Q60" s="12" t="s">
@@ -14443,7 +14440,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="Y60" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>780.00000000000045</v>
       </c>
       <c r="Z60" s="27">
@@ -14453,7 +14450,7 @@
         <v>15</v>
       </c>
       <c r="AB60" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="AD60" s="11" t="s">
@@ -14484,7 +14481,7 @@
         <v>2.7</v>
       </c>
       <c r="AV60">
-        <f>IF(M60&gt;O60,1,0)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AW60">
@@ -14492,7 +14489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:49">
       <c r="A61" s="11" t="s">
         <v>459</v>
       </c>
@@ -14536,7 +14533,7 @@
         <v>462</v>
       </c>
       <c r="P61" s="23">
-        <f>Y61-Z61</f>
+        <f t="shared" si="6"/>
         <v>300.00000000000051</v>
       </c>
       <c r="Q61" s="12" t="s">
@@ -14561,7 +14558,7 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="Y61" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>420.00000000000051</v>
       </c>
       <c r="Z61" s="27">
@@ -14571,7 +14568,7 @@
         <v>60</v>
       </c>
       <c r="AB61" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="AD61" s="11" t="s">
@@ -14605,7 +14602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:49">
       <c r="A62" s="11" t="s">
         <v>463</v>
       </c>
@@ -14640,7 +14637,7 @@
         <v>125</v>
       </c>
       <c r="P62" s="23">
-        <f>Y62-Z62</f>
+        <f t="shared" si="6"/>
         <v>359.99999999999949</v>
       </c>
       <c r="Q62" s="12" t="s">
@@ -14665,7 +14662,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y62" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z62" s="27">
@@ -14675,7 +14672,7 @@
         <v>60</v>
       </c>
       <c r="AB62" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="AC62" s="12" t="s">
@@ -14721,7 +14718,7 @@
         <v>189</v>
       </c>
       <c r="AV62">
-        <f>IF(M62&gt;O62,1,0)</f>
+        <f t="shared" ref="AV62:AV71" si="10">IF(M62&gt;O62,1,0)</f>
         <v>0</v>
       </c>
       <c r="AW62">
@@ -14729,7 +14726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:49">
       <c r="A63" s="11" t="s">
         <v>463</v>
       </c>
@@ -14764,7 +14761,7 @@
         <v>125</v>
       </c>
       <c r="P63" s="23">
-        <f>Y63-Z63</f>
+        <f t="shared" si="6"/>
         <v>449.99999999999949</v>
       </c>
       <c r="Q63" s="12" t="s">
@@ -14789,7 +14786,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y63" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z63" s="27">
@@ -14799,7 +14796,7 @@
         <v>60</v>
       </c>
       <c r="AB63" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="AC63" s="12" t="s">
@@ -14839,7 +14836,7 @@
         <v>189</v>
       </c>
       <c r="AV63">
-        <f>IF(M63&gt;O63,1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AW63">
@@ -14847,7 +14844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:49">
       <c r="A64" s="11" t="s">
         <v>468</v>
       </c>
@@ -14885,7 +14882,7 @@
         <v>125</v>
       </c>
       <c r="P64" s="23">
-        <f>Y64-Z64</f>
+        <f t="shared" si="6"/>
         <v>444.99999999999949</v>
       </c>
       <c r="Q64" s="12" t="s">
@@ -14910,7 +14907,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y64" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z64" s="27">
@@ -14920,7 +14917,7 @@
         <v>15</v>
       </c>
       <c r="AB64" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="AC64" s="12" t="s">
@@ -14963,7 +14960,7 @@
         <v>282</v>
       </c>
       <c r="AV64">
-        <f>IF(M64&gt;O64,1,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AW64">
@@ -14971,7 +14968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:49">
       <c r="A65" s="11" t="s">
         <v>473</v>
       </c>
@@ -15006,7 +15003,7 @@
         <v>476</v>
       </c>
       <c r="P65" s="23">
-        <f>Y65-Z65</f>
+        <f t="shared" si="6"/>
         <v>289.99999999999955</v>
       </c>
       <c r="Q65" s="12" t="s">
@@ -15031,7 +15028,7 @@
         <v>0.20833333333333301</v>
       </c>
       <c r="Y65" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>299.99999999999955</v>
       </c>
       <c r="Z65" s="27">
@@ -15041,7 +15038,7 @@
         <v>15</v>
       </c>
       <c r="AB65" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="AC65" s="12" t="s">
@@ -15087,7 +15084,7 @@
         <v>189</v>
       </c>
       <c r="AV65">
-        <f>IF(M65&gt;O65,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AW65">
@@ -15095,7 +15092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:49">
       <c r="A66" s="11" t="s">
         <v>480</v>
       </c>
@@ -15130,7 +15127,7 @@
         <v>110</v>
       </c>
       <c r="P66" s="23">
-        <f>Y66-Z66</f>
+        <f t="shared" ref="P66:P97" si="11">Y66-Z66</f>
         <v>350</v>
       </c>
       <c r="Q66" s="12" t="s">
@@ -15155,7 +15152,7 @@
         <v>0.25</v>
       </c>
       <c r="Y66" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>360</v>
       </c>
       <c r="Z66" s="27">
@@ -15165,7 +15162,7 @@
         <v>15</v>
       </c>
       <c r="AB66" s="23">
-        <f t="shared" ref="AB66:AB97" si="4">Z66*2+AA66</f>
+        <f t="shared" ref="AB66:AB97" si="12">Z66*2+AA66</f>
         <v>35</v>
       </c>
       <c r="AC66" s="12" t="s">
@@ -15211,7 +15208,7 @@
         <v>189</v>
       </c>
       <c r="AV66">
-        <f>IF(M66&gt;O66,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AW66">
@@ -15219,7 +15216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:49">
       <c r="A67" s="11" t="s">
         <v>487</v>
       </c>
@@ -15254,7 +15251,7 @@
         <v>110</v>
       </c>
       <c r="P67" s="23">
-        <f>Y67-Z67</f>
+        <f t="shared" si="11"/>
         <v>350</v>
       </c>
       <c r="Q67" s="12" t="s">
@@ -15279,7 +15276,7 @@
         <v>0.25</v>
       </c>
       <c r="Y67" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>360</v>
       </c>
       <c r="Z67" s="27">
@@ -15289,7 +15286,7 @@
         <v>15</v>
       </c>
       <c r="AB67" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC67" s="12" t="s">
@@ -15335,7 +15332,7 @@
         <v>189</v>
       </c>
       <c r="AV67">
-        <f>IF(M67&gt;O67,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AW67">
@@ -15343,7 +15340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:49">
       <c r="A68" s="11" t="s">
         <v>492</v>
       </c>
@@ -15378,7 +15375,7 @@
         <v>494</v>
       </c>
       <c r="P68" s="23">
-        <f>Y68-Z68</f>
+        <f t="shared" si="11"/>
         <v>395</v>
       </c>
       <c r="Q68" s="12" t="s">
@@ -15403,7 +15400,7 @@
         <v>0.28125</v>
       </c>
       <c r="Y68" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>405</v>
       </c>
       <c r="Z68" s="27">
@@ -15413,7 +15410,7 @@
         <v>15</v>
       </c>
       <c r="AB68" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC68" s="12" t="s">
@@ -15459,7 +15456,7 @@
         <v>189</v>
       </c>
       <c r="AV68">
-        <f>IF(M68&gt;O68,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AW68">
@@ -15467,7 +15464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:49">
       <c r="A69" s="11" t="s">
         <v>497</v>
       </c>
@@ -15502,7 +15499,7 @@
         <v>494</v>
       </c>
       <c r="P69" s="23">
-        <f>Y69-Z69</f>
+        <f t="shared" si="11"/>
         <v>395</v>
       </c>
       <c r="Q69" s="12" t="s">
@@ -15527,7 +15524,7 @@
         <v>0.28125</v>
       </c>
       <c r="Y69" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>405</v>
       </c>
       <c r="Z69" s="27">
@@ -15537,7 +15534,7 @@
         <v>15</v>
       </c>
       <c r="AB69" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC69" s="12" t="s">
@@ -15586,7 +15583,7 @@
         <v>503</v>
       </c>
       <c r="AV69">
-        <f>IF(M69&gt;O69,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AW69">
@@ -15594,7 +15591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:49">
       <c r="A70" s="11" t="s">
         <v>504</v>
       </c>
@@ -15629,7 +15626,7 @@
         <v>494</v>
       </c>
       <c r="P70" s="23">
-        <f>Y70-Z70</f>
+        <f t="shared" si="11"/>
         <v>395</v>
       </c>
       <c r="Q70" s="12" t="s">
@@ -15654,7 +15651,7 @@
         <v>0.28125</v>
       </c>
       <c r="Y70" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>405</v>
       </c>
       <c r="Z70" s="27">
@@ -15664,7 +15661,7 @@
         <v>15</v>
       </c>
       <c r="AB70" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC70" s="12" t="s">
@@ -15710,7 +15707,7 @@
         <v>189</v>
       </c>
       <c r="AV70">
-        <f>IF(M70&gt;O70,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AW70">
@@ -15718,7 +15715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:49">
       <c r="A71" s="11" t="s">
         <v>508</v>
       </c>
@@ -15753,7 +15750,7 @@
         <v>511</v>
       </c>
       <c r="P71" s="23">
-        <f>Y71-Z71</f>
+        <f t="shared" si="11"/>
         <v>485</v>
       </c>
       <c r="Q71" s="12" t="s">
@@ -15778,7 +15775,7 @@
         <v>0.34375</v>
       </c>
       <c r="Y71" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>495</v>
       </c>
       <c r="Z71" s="27">
@@ -15788,7 +15785,7 @@
         <v>15</v>
       </c>
       <c r="AB71" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC71" s="12" t="s">
@@ -15834,7 +15831,7 @@
         <v>189</v>
       </c>
       <c r="AV71">
-        <f>IF(M71&gt;O71,1,0)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AW71">
@@ -15842,7 +15839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:49">
       <c r="A72" s="11" t="s">
         <v>514</v>
       </c>
@@ -15877,7 +15874,7 @@
         <v>511</v>
       </c>
       <c r="P72" s="23">
-        <f>Y72-Z72</f>
+        <f t="shared" si="11"/>
         <v>375</v>
       </c>
       <c r="Q72" s="12" t="s">
@@ -15902,7 +15899,7 @@
         <v>0.34375</v>
       </c>
       <c r="Y72" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>495</v>
       </c>
       <c r="Z72" s="27">
@@ -15912,7 +15909,7 @@
         <v>60</v>
       </c>
       <c r="AB72" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="AC72" s="12" t="s">
@@ -15968,7 +15965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:49">
       <c r="A73" s="11" t="s">
         <v>522</v>
       </c>
@@ -16003,7 +16000,7 @@
         <v>511</v>
       </c>
       <c r="P73" s="23">
-        <f>Y73-Z73</f>
+        <f t="shared" si="11"/>
         <v>375</v>
       </c>
       <c r="Q73" s="12" t="s">
@@ -16028,7 +16025,7 @@
         <v>0.34375</v>
       </c>
       <c r="Y73" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>495</v>
       </c>
       <c r="Z73" s="27">
@@ -16038,7 +16035,7 @@
         <v>60</v>
       </c>
       <c r="AB73" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="AC73" s="12" t="s">
@@ -16094,7 +16091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:49">
       <c r="A74" s="11" t="s">
         <v>526</v>
       </c>
@@ -16129,7 +16126,7 @@
         <v>511</v>
       </c>
       <c r="P74" s="23">
-        <f>Y74-Z74</f>
+        <f t="shared" si="11"/>
         <v>485</v>
       </c>
       <c r="Q74" s="12" t="s">
@@ -16154,7 +16151,7 @@
         <v>0.34375</v>
       </c>
       <c r="Y74" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>495</v>
       </c>
       <c r="Z74" s="27">
@@ -16164,7 +16161,7 @@
         <v>15</v>
       </c>
       <c r="AB74" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC74" s="12" t="s">
@@ -16218,7 +16215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:49">
       <c r="A75" s="11" t="s">
         <v>531</v>
       </c>
@@ -16253,7 +16250,7 @@
         <v>148</v>
       </c>
       <c r="P75" s="23">
-        <f>Y75-Z75</f>
+        <f t="shared" si="11"/>
         <v>494.99999999999943</v>
       </c>
       <c r="Q75" s="12" t="s">
@@ -16278,7 +16275,7 @@
         <v>0.42708333333333298</v>
       </c>
       <c r="Y75" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>614.99999999999943</v>
       </c>
       <c r="Z75" s="27">
@@ -16288,7 +16285,7 @@
         <v>60</v>
       </c>
       <c r="AB75" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="AC75" s="12" t="s">
@@ -16344,7 +16341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:49">
       <c r="A76" s="11" t="s">
         <v>537</v>
       </c>
@@ -16388,7 +16385,7 @@
         <v>148</v>
       </c>
       <c r="P76" s="23">
-        <f>Y76-Z76</f>
+        <f t="shared" si="11"/>
         <v>494.99999999999943</v>
       </c>
       <c r="Q76" s="12" t="s">
@@ -16413,7 +16410,7 @@
         <v>0.42708333333333298</v>
       </c>
       <c r="Y76" s="23">
-        <f t="shared" ref="Y76:Y107" si="5">X76*24*60</f>
+        <f t="shared" ref="Y76:Y107" si="13">X76*24*60</f>
         <v>614.99999999999943</v>
       </c>
       <c r="Z76" s="27">
@@ -16423,7 +16420,7 @@
         <v>60</v>
       </c>
       <c r="AB76" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="AC76" s="12" t="s">
@@ -16479,7 +16476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:49">
       <c r="A77" s="11" t="s">
         <v>545</v>
       </c>
@@ -16514,7 +16511,7 @@
         <v>173</v>
       </c>
       <c r="P77" s="23">
-        <f>Y77-Z77</f>
+        <f t="shared" si="11"/>
         <v>584.99999999999943</v>
       </c>
       <c r="Q77" s="12" t="s">
@@ -16539,7 +16536,7 @@
         <v>0.48958333333333298</v>
       </c>
       <c r="Y77" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>704.99999999999943</v>
       </c>
       <c r="Z77" s="27">
@@ -16549,7 +16546,7 @@
         <v>60</v>
       </c>
       <c r="AB77" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="AC77" s="12" t="s">
@@ -16598,7 +16595,7 @@
         <v>189</v>
       </c>
       <c r="AV77">
-        <f>IF(M77&gt;O77,1,0)</f>
+        <f t="shared" ref="AV77:AV92" si="14">IF(M77&gt;O77,1,0)</f>
         <v>0</v>
       </c>
       <c r="AW77">
@@ -16606,7 +16603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:49">
       <c r="A78" s="11" t="s">
         <v>551</v>
       </c>
@@ -16641,7 +16638,7 @@
         <v>173</v>
       </c>
       <c r="P78" s="23">
-        <f>Y78-Z78</f>
+        <f t="shared" si="11"/>
         <v>694.99999999999943</v>
       </c>
       <c r="Q78" s="12" t="s">
@@ -16666,7 +16663,7 @@
         <v>0.48958333333333298</v>
       </c>
       <c r="Y78" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>704.99999999999943</v>
       </c>
       <c r="Z78" s="27">
@@ -16676,7 +16673,7 @@
         <v>15</v>
       </c>
       <c r="AB78" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC78" s="12" t="s">
@@ -16725,7 +16722,7 @@
         <v>556</v>
       </c>
       <c r="AV78">
-        <f>IF(M78&gt;O78,1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AW78">
@@ -16733,7 +16730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:49">
       <c r="A79" s="11" t="s">
         <v>557</v>
       </c>
@@ -16768,7 +16765,7 @@
         <v>173</v>
       </c>
       <c r="P79" s="23">
-        <f>Y79-Z79</f>
+        <f t="shared" si="11"/>
         <v>694.99999999999943</v>
       </c>
       <c r="Q79" s="12" t="s">
@@ -16793,7 +16790,7 @@
         <v>0.48958333333333298</v>
       </c>
       <c r="Y79" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>704.99999999999943</v>
       </c>
       <c r="Z79" s="27">
@@ -16803,7 +16800,7 @@
         <v>15</v>
       </c>
       <c r="AB79" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC79" s="12" t="s">
@@ -16852,7 +16849,7 @@
         <v>562</v>
       </c>
       <c r="AV79">
-        <f>IF(M79&gt;O79,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AW79">
@@ -16860,7 +16857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:49">
       <c r="A80" s="11" t="s">
         <v>563</v>
       </c>
@@ -16895,7 +16892,7 @@
         <v>173</v>
       </c>
       <c r="P80" s="23">
-        <f>Y80-Z80</f>
+        <f t="shared" si="11"/>
         <v>694.99999999999943</v>
       </c>
       <c r="Q80" s="12" t="s">
@@ -16920,7 +16917,7 @@
         <v>0.48958333333333298</v>
       </c>
       <c r="Y80" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>704.99999999999943</v>
       </c>
       <c r="Z80" s="27">
@@ -16930,7 +16927,7 @@
         <v>15</v>
       </c>
       <c r="AB80" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC80" s="12" t="s">
@@ -16979,7 +16976,7 @@
         <v>568</v>
       </c>
       <c r="AV80">
-        <f>IF(M80&gt;O80,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AW80">
@@ -16987,7 +16984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:49">
       <c r="A81" s="11" t="s">
         <v>569</v>
       </c>
@@ -17022,7 +17019,7 @@
         <v>458</v>
       </c>
       <c r="P81" s="23">
-        <f>Y81-Z81</f>
+        <f t="shared" si="11"/>
         <v>770.00000000000045</v>
       </c>
       <c r="Q81" s="12" t="s">
@@ -17047,7 +17044,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="Y81" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>780.00000000000045</v>
       </c>
       <c r="Z81" s="27">
@@ -17057,7 +17054,7 @@
         <v>15</v>
       </c>
       <c r="AB81" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC81" s="12" t="s">
@@ -17103,7 +17100,7 @@
         <v>189</v>
       </c>
       <c r="AV81">
-        <f>IF(M81&gt;O81,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AW81">
@@ -17111,7 +17108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:49">
       <c r="A82" s="11" t="s">
         <v>575</v>
       </c>
@@ -17146,7 +17143,7 @@
         <v>578</v>
       </c>
       <c r="P82" s="23">
-        <f>Y82-Z82</f>
+        <f t="shared" si="11"/>
         <v>829.99999999999955</v>
       </c>
       <c r="Q82" s="12" t="s">
@@ -17171,7 +17168,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="Y82" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>839.99999999999955</v>
       </c>
       <c r="Z82" s="27">
@@ -17181,7 +17178,7 @@
         <v>15</v>
       </c>
       <c r="AB82" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC82" s="12" t="s">
@@ -17227,7 +17224,7 @@
         <v>189</v>
       </c>
       <c r="AV82">
-        <f>IF(M82&gt;O82,1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AW82">
@@ -17235,7 +17232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:49">
       <c r="A83" s="11" t="s">
         <v>581</v>
       </c>
@@ -17270,7 +17267,7 @@
         <v>584</v>
       </c>
       <c r="P83" s="23">
-        <f>Y83-Z83</f>
+        <f t="shared" si="11"/>
         <v>890</v>
       </c>
       <c r="Q83" s="12" t="s">
@@ -17295,7 +17292,7 @@
         <v>0.625</v>
       </c>
       <c r="Y83" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>900</v>
       </c>
       <c r="Z83" s="27">
@@ -17305,7 +17302,7 @@
         <v>15</v>
       </c>
       <c r="AB83" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC83" s="12" t="s">
@@ -17351,7 +17348,7 @@
         <v>189</v>
       </c>
       <c r="AV83">
-        <f>IF(M83&gt;O83,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AW83">
@@ -17359,7 +17356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:49">
       <c r="A84" s="11" t="s">
         <v>587</v>
       </c>
@@ -17394,7 +17391,7 @@
         <v>591</v>
       </c>
       <c r="P84" s="23">
-        <f>Y84-Z84</f>
+        <f t="shared" si="11"/>
         <v>1070</v>
       </c>
       <c r="Q84" s="12" t="s">
@@ -17419,7 +17416,7 @@
         <v>0.75</v>
       </c>
       <c r="Y84" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1080</v>
       </c>
       <c r="Z84" s="27">
@@ -17429,7 +17426,7 @@
         <v>15</v>
       </c>
       <c r="AB84" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC84" s="12" t="s">
@@ -17475,7 +17472,7 @@
         <v>248</v>
       </c>
       <c r="AV84">
-        <f>IF(M84&gt;O84,1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AW84">
@@ -17483,7 +17480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:49">
       <c r="A85" s="11" t="s">
         <v>522</v>
       </c>
@@ -17518,7 +17515,7 @@
         <v>511</v>
       </c>
       <c r="P85" s="23">
-        <f>Y85-Z85</f>
+        <f t="shared" si="11"/>
         <v>485</v>
       </c>
       <c r="Q85" s="12" t="s">
@@ -17543,7 +17540,7 @@
         <v>0.34375</v>
       </c>
       <c r="Y85" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>495</v>
       </c>
       <c r="Z85" s="27">
@@ -17553,7 +17550,7 @@
         <v>15</v>
       </c>
       <c r="AB85" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC85" s="12" t="s">
@@ -17596,7 +17593,7 @@
         <v>189</v>
       </c>
       <c r="AV85">
-        <f>IF(M85&gt;O85,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AW85">
@@ -17604,7 +17601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:49">
       <c r="A86" s="11" t="s">
         <v>594</v>
       </c>
@@ -17639,7 +17636,7 @@
         <v>597</v>
       </c>
       <c r="P86" s="23">
-        <f>Y86-Z86</f>
+        <f t="shared" si="11"/>
         <v>415</v>
       </c>
       <c r="Q86" s="12" t="s">
@@ -17664,7 +17661,7 @@
         <v>0.3125</v>
       </c>
       <c r="Y86" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>450</v>
       </c>
       <c r="Z86" s="27">
@@ -17674,7 +17671,7 @@
         <v>60</v>
       </c>
       <c r="AB86" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>130</v>
       </c>
       <c r="AC86" s="12" t="s">
@@ -17717,14 +17714,14 @@
         <v>189</v>
       </c>
       <c r="AV86">
-        <f>IF(M86&gt;O86,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AW86">
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:49">
       <c r="A87" s="11" t="s">
         <v>601</v>
       </c>
@@ -17759,7 +17756,7 @@
         <v>142</v>
       </c>
       <c r="P87" s="23">
-        <f>Y87-Z87</f>
+        <f t="shared" si="11"/>
         <v>565.00000000000057</v>
       </c>
       <c r="Q87" s="12" t="s">
@@ -17784,7 +17781,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="Y87" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>600.00000000000057</v>
       </c>
       <c r="Z87" s="27">
@@ -17794,7 +17791,7 @@
         <v>60</v>
       </c>
       <c r="AB87" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>130</v>
       </c>
       <c r="AC87" s="12" t="s">
@@ -17837,7 +17834,7 @@
         <v>189</v>
       </c>
       <c r="AV87">
-        <f>IF(M87&gt;O87,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="AW87">
@@ -17845,7 +17842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:49">
       <c r="A88" s="11" t="s">
         <v>606</v>
       </c>
@@ -17880,7 +17877,7 @@
         <v>458</v>
       </c>
       <c r="P88" s="23">
-        <f>Y88-Z88</f>
+        <f t="shared" si="11"/>
         <v>745.00000000000045</v>
       </c>
       <c r="Q88" s="12" t="s">
@@ -17905,7 +17902,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="Y88" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>780.00000000000045</v>
       </c>
       <c r="Z88" s="27">
@@ -17915,7 +17912,7 @@
         <v>60</v>
       </c>
       <c r="AB88" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>130</v>
       </c>
       <c r="AC88" s="12" t="s">
@@ -17958,14 +17955,14 @@
         <v>189</v>
       </c>
       <c r="AV88">
-        <f>IF(M88&gt;O88,1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AW88">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:49">
       <c r="A89" s="11" t="s">
         <v>611</v>
       </c>
@@ -18000,7 +17997,7 @@
         <v>578</v>
       </c>
       <c r="P89" s="23">
-        <f>Y89-Z89</f>
+        <f t="shared" si="11"/>
         <v>804.99999999999955</v>
       </c>
       <c r="Q89" s="12" t="s">
@@ -18025,7 +18022,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="Y89" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>839.99999999999955</v>
       </c>
       <c r="Z89" s="27">
@@ -18035,7 +18032,7 @@
         <v>60</v>
       </c>
       <c r="AB89" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>130</v>
       </c>
       <c r="AC89" s="12" t="s">
@@ -18078,7 +18075,7 @@
         <v>189</v>
       </c>
       <c r="AV89">
-        <f>IF(M89&gt;O89,1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AW89">
@@ -18086,7 +18083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:49">
       <c r="A90" s="11" t="s">
         <v>619</v>
       </c>
@@ -18121,7 +18118,7 @@
         <v>622</v>
       </c>
       <c r="P90" s="23">
-        <f>Y90-Z90</f>
+        <f t="shared" si="11"/>
         <v>925.00000000000045</v>
       </c>
       <c r="Q90" s="12" t="s">
@@ -18146,7 +18143,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="Y90" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>960.00000000000045</v>
       </c>
       <c r="Z90" s="27">
@@ -18156,7 +18153,7 @@
         <v>60</v>
       </c>
       <c r="AB90" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>130</v>
       </c>
       <c r="AC90" s="12" t="s">
@@ -18202,7 +18199,7 @@
         <v>627</v>
       </c>
       <c r="AV90">
-        <f>IF(M90&gt;O90,1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AW90">
@@ -18210,7 +18207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:49">
       <c r="A91" s="11" t="s">
         <v>628</v>
       </c>
@@ -18245,7 +18242,7 @@
         <v>389</v>
       </c>
       <c r="P91" s="23">
-        <f>Y91-Z91</f>
+        <f t="shared" si="11"/>
         <v>590.00000000000057</v>
       </c>
       <c r="Q91" s="12" t="s">
@@ -18270,7 +18267,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="Y91" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>600.00000000000057</v>
       </c>
       <c r="Z91" s="27">
@@ -18280,7 +18277,7 @@
         <v>15</v>
       </c>
       <c r="AB91" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC91" s="12" t="s">
@@ -18326,7 +18323,7 @@
         <v>189</v>
       </c>
       <c r="AV91">
-        <f>IF(M91&gt;O91,1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AW91">
@@ -18334,7 +18331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:49">
       <c r="A92" s="11" t="s">
         <v>633</v>
       </c>
@@ -18369,7 +18366,7 @@
         <v>389</v>
       </c>
       <c r="P92" s="23">
-        <f>Y92-Z92</f>
+        <f t="shared" si="11"/>
         <v>649.99999999999943</v>
       </c>
       <c r="Q92" s="12" t="s">
@@ -18394,7 +18391,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="Y92" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>659.99999999999943</v>
       </c>
       <c r="Z92" s="27">
@@ -18404,7 +18401,7 @@
         <v>15</v>
       </c>
       <c r="AB92" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="AC92" s="12" t="s">
@@ -18450,7 +18447,7 @@
         <v>189</v>
       </c>
       <c r="AV92">
-        <f>IF(M92&gt;O92,1,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AW92">
@@ -18458,7 +18455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:49">
       <c r="A93" s="11" t="s">
         <v>639</v>
       </c>
@@ -18502,7 +18499,7 @@
         <v>641</v>
       </c>
       <c r="P93" s="23">
-        <f>Y93-Z93</f>
+        <f t="shared" si="11"/>
         <v>420</v>
       </c>
       <c r="Q93" s="12" t="s">
@@ -18527,7 +18524,7 @@
         <v>0.375</v>
       </c>
       <c r="Y93" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>540</v>
       </c>
       <c r="Z93" s="27">
@@ -18537,7 +18534,7 @@
         <v>60</v>
       </c>
       <c r="AB93" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>300</v>
       </c>
       <c r="AD93" s="11" t="s">
@@ -18575,7 +18572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:49">
       <c r="A94" s="11" t="s">
         <v>645</v>
       </c>
@@ -18613,7 +18610,7 @@
         <v>650</v>
       </c>
       <c r="P94" s="23">
-        <f>Y94-Z94</f>
+        <f t="shared" si="11"/>
         <v>269.99999999999989</v>
       </c>
       <c r="Q94" s="12" t="s">
@@ -18638,7 +18635,7 @@
         <v>0.23611111111111099</v>
       </c>
       <c r="Y94" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>339.99999999999989</v>
       </c>
       <c r="Z94" s="27">
@@ -18648,7 +18645,7 @@
         <v>15</v>
       </c>
       <c r="AB94" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>155</v>
       </c>
       <c r="AC94" s="12" t="s">
@@ -18682,14 +18679,14 @@
         <v>1.3</v>
       </c>
       <c r="AV94">
-        <f>IF(M94&gt;O94,1,0)</f>
+        <f t="shared" ref="AV94:AV122" si="15">IF(M94&gt;O94,1,0)</f>
         <v>1</v>
       </c>
       <c r="AW94">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:49">
       <c r="A95" s="11" t="s">
         <v>654</v>
       </c>
@@ -18727,7 +18724,7 @@
         <v>641</v>
       </c>
       <c r="P95" s="23">
-        <f>Y95-Z95</f>
+        <f t="shared" si="11"/>
         <v>470</v>
       </c>
       <c r="Q95" s="12" t="s">
@@ -18752,7 +18749,7 @@
         <v>0.375</v>
       </c>
       <c r="Y95" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>540</v>
       </c>
       <c r="Z95" s="27">
@@ -18762,7 +18759,7 @@
         <v>15</v>
       </c>
       <c r="AB95" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>155</v>
       </c>
       <c r="AD95" s="11" t="s">
@@ -18793,7 +18790,7 @@
         <v>282</v>
       </c>
       <c r="AV95">
-        <f>IF(M95&gt;O95,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AW95">
@@ -18801,7 +18798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:49">
       <c r="A96" s="11" t="s">
         <v>661</v>
       </c>
@@ -18836,7 +18833,7 @@
         <v>641</v>
       </c>
       <c r="P96" s="23">
-        <f>Y96-Z96</f>
+        <f t="shared" si="11"/>
         <v>470</v>
       </c>
       <c r="Q96" s="12" t="s">
@@ -18861,7 +18858,7 @@
         <v>0.375</v>
       </c>
       <c r="Y96" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>540</v>
       </c>
       <c r="Z96" s="27">
@@ -18871,7 +18868,7 @@
         <v>15</v>
       </c>
       <c r="AB96" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>155</v>
       </c>
       <c r="AD96" s="11" t="s">
@@ -18902,14 +18899,14 @@
         <v>7.5</v>
       </c>
       <c r="AV96">
-        <f>IF(M96&gt;O96,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AW96">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:49">
       <c r="A97" s="11" t="s">
         <v>666</v>
       </c>
@@ -18944,7 +18941,7 @@
         <v>641</v>
       </c>
       <c r="P97" s="23">
-        <f>Y97-Z97</f>
+        <f t="shared" si="11"/>
         <v>470</v>
       </c>
       <c r="Q97" s="12" t="s">
@@ -18969,7 +18966,7 @@
         <v>0.375</v>
       </c>
       <c r="Y97" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>540</v>
       </c>
       <c r="Z97" s="27">
@@ -18979,7 +18976,7 @@
         <v>15</v>
       </c>
       <c r="AB97" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>155</v>
       </c>
       <c r="AD97" s="11" t="s">
@@ -19010,7 +19007,7 @@
         <v>7.5</v>
       </c>
       <c r="AV97">
-        <f>IF(M97&gt;O97,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW97">
@@ -19018,7 +19015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:49">
       <c r="A98" s="11" t="s">
         <v>669</v>
       </c>
@@ -19056,7 +19053,7 @@
         <v>180</v>
       </c>
       <c r="P98" s="23">
-        <f>Y98-Z98</f>
+        <f t="shared" ref="P98:P134" si="16">Y98-Z98</f>
         <v>300.00000000000051</v>
       </c>
       <c r="Q98" s="12" t="s">
@@ -19081,7 +19078,7 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="Y98" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>420.00000000000051</v>
       </c>
       <c r="Z98" s="27">
@@ -19091,7 +19088,7 @@
         <v>60</v>
       </c>
       <c r="AB98" s="23">
-        <f t="shared" ref="AB98:AB129" si="6">Z98*2+AA98</f>
+        <f t="shared" ref="AB98:AB129" si="17">Z98*2+AA98</f>
         <v>300</v>
       </c>
       <c r="AC98" s="12" t="s">
@@ -19134,7 +19131,7 @@
         <v>103</v>
       </c>
       <c r="AV98">
-        <f>IF(M98&gt;O98,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW98">
@@ -19142,7 +19139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:49">
       <c r="A99" s="11" t="s">
         <v>675</v>
       </c>
@@ -19177,7 +19174,7 @@
         <v>678</v>
       </c>
       <c r="P99" s="23">
-        <f>Y99-Z99</f>
+        <f t="shared" si="16"/>
         <v>404.99999999999943</v>
       </c>
       <c r="Q99" s="12" t="s">
@@ -19202,7 +19199,7 @@
         <v>0.36458333333333298</v>
       </c>
       <c r="Y99" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>524.99999999999943</v>
       </c>
       <c r="Z99" s="27">
@@ -19212,7 +19209,7 @@
         <v>60</v>
       </c>
       <c r="AB99" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>300</v>
       </c>
       <c r="AC99" s="12" t="s">
@@ -19258,7 +19255,7 @@
         <v>189</v>
       </c>
       <c r="AV99">
-        <f>IF(M99&gt;O99,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW99">
@@ -19266,7 +19263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:49">
       <c r="A100" s="11" t="s">
         <v>681</v>
       </c>
@@ -19304,7 +19301,7 @@
         <v>683</v>
       </c>
       <c r="P100" s="23">
-        <f>Y100-Z100</f>
+        <f t="shared" si="16"/>
         <v>374.99999999999949</v>
       </c>
       <c r="Q100" s="12" t="s">
@@ -19329,7 +19326,7 @@
         <v>0.27083333333333298</v>
       </c>
       <c r="Y100" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>389.99999999999949</v>
       </c>
       <c r="Z100" s="27">
@@ -19339,7 +19336,7 @@
         <v>20</v>
       </c>
       <c r="AB100" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="AC100" s="12" t="s">
@@ -19382,7 +19379,7 @@
         <v>189</v>
       </c>
       <c r="AV100">
-        <f>IF(M100&gt;O100,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AW100">
@@ -19390,7 +19387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:49">
       <c r="A101" s="11" t="s">
         <v>686</v>
       </c>
@@ -19428,7 +19425,7 @@
         <v>689</v>
       </c>
       <c r="P101" s="23">
-        <f>Y101-Z101</f>
+        <f t="shared" si="16"/>
         <v>419.99999999999949</v>
       </c>
       <c r="Q101" s="12" t="s">
@@ -19453,7 +19450,7 @@
         <v>0.30208333333333298</v>
       </c>
       <c r="Y101" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>434.99999999999949</v>
       </c>
       <c r="Z101" s="27">
@@ -19463,7 +19460,7 @@
         <v>20</v>
       </c>
       <c r="AB101" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="AC101" s="12" t="s">
@@ -19506,14 +19503,14 @@
         <v>189</v>
       </c>
       <c r="AV101">
-        <f>IF(M101&gt;O101,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW101">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:49">
       <c r="A102" s="11" t="s">
         <v>691</v>
       </c>
@@ -19548,7 +19545,7 @@
         <v>689</v>
       </c>
       <c r="P102" s="23">
-        <f>Y102-Z102</f>
+        <f t="shared" si="16"/>
         <v>464.99999999999949</v>
       </c>
       <c r="Q102" s="12" t="s">
@@ -19573,7 +19570,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y102" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z102" s="27">
@@ -19583,7 +19580,7 @@
         <v>20</v>
       </c>
       <c r="AB102" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="AC102" s="12" t="s">
@@ -19629,7 +19626,7 @@
         <v>697</v>
       </c>
       <c r="AV102">
-        <f>IF(M102&gt;O102,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW102">
@@ -19637,7 +19634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:49">
       <c r="A103" s="11" t="s">
         <v>675</v>
       </c>
@@ -19672,7 +19669,7 @@
         <v>678</v>
       </c>
       <c r="P103" s="23">
-        <f>Y103-Z103</f>
+        <f t="shared" si="16"/>
         <v>509.99999999999943</v>
       </c>
       <c r="Q103" s="12" t="s">
@@ -19697,7 +19694,7 @@
         <v>0.36458333333333298</v>
       </c>
       <c r="Y103" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>524.99999999999943</v>
       </c>
       <c r="Z103" s="27">
@@ -19707,7 +19704,7 @@
         <v>20</v>
       </c>
       <c r="AB103" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="AC103" s="12" t="s">
@@ -19747,7 +19744,7 @@
         <v>189</v>
       </c>
       <c r="AV103">
-        <f>IF(M103&gt;O103,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW103">
@@ -19755,7 +19752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:49">
       <c r="A104" s="11" t="s">
         <v>698</v>
       </c>
@@ -19790,7 +19787,7 @@
         <v>683</v>
       </c>
       <c r="P104" s="23">
-        <f>Y104-Z104</f>
+        <f t="shared" si="16"/>
         <v>374.99999999999949</v>
       </c>
       <c r="Q104" s="12" t="s">
@@ -19815,7 +19812,7 @@
         <v>0.27083333333333298</v>
       </c>
       <c r="Y104" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>389.99999999999949</v>
       </c>
       <c r="Z104" s="27">
@@ -19825,7 +19822,7 @@
         <v>20</v>
       </c>
       <c r="AB104" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="AC104" s="12" t="s">
@@ -19868,7 +19865,7 @@
         <v>189</v>
       </c>
       <c r="AV104">
-        <f>IF(M104&gt;O104,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AW104">
@@ -19876,7 +19873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:49">
       <c r="A105" s="11" t="s">
         <v>703</v>
       </c>
@@ -19911,7 +19908,7 @@
         <v>689</v>
       </c>
       <c r="P105" s="23">
-        <f>Y105-Z105</f>
+        <f t="shared" si="16"/>
         <v>419.99999999999949</v>
       </c>
       <c r="Q105" s="12" t="s">
@@ -19936,7 +19933,7 @@
         <v>0.30208333333333298</v>
       </c>
       <c r="Y105" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>434.99999999999949</v>
       </c>
       <c r="Z105" s="27">
@@ -19946,7 +19943,7 @@
         <v>20</v>
       </c>
       <c r="AB105" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="AC105" s="12" t="s">
@@ -19989,7 +19986,7 @@
         <v>189</v>
       </c>
       <c r="AV105">
-        <f>IF(M105&gt;O105,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW105">
@@ -19997,7 +19994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:49">
       <c r="A106" s="11" t="s">
         <v>706</v>
       </c>
@@ -20032,7 +20029,7 @@
         <v>689</v>
       </c>
       <c r="P106" s="23">
-        <f>Y106-Z106</f>
+        <f t="shared" si="16"/>
         <v>464.99999999999949</v>
       </c>
       <c r="Q106" s="12" t="s">
@@ -20057,7 +20054,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y106" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z106" s="27">
@@ -20067,7 +20064,7 @@
         <v>20</v>
       </c>
       <c r="AB106" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
       <c r="AC106" s="12" t="s">
@@ -20113,7 +20110,7 @@
         <v>710</v>
       </c>
       <c r="AV106">
-        <f>IF(M106&gt;O106,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW106">
@@ -20121,7 +20118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:49">
       <c r="A107" s="11" t="s">
         <v>711</v>
       </c>
@@ -20159,7 +20156,7 @@
         <v>714</v>
       </c>
       <c r="P107" s="23">
-        <f>Y107-Z107</f>
+        <f t="shared" si="16"/>
         <v>539.99999999999943</v>
       </c>
       <c r="Q107" s="12" t="s">
@@ -20184,7 +20181,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="Y107" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>659.99999999999943</v>
       </c>
       <c r="Z107" s="27">
@@ -20194,7 +20191,7 @@
         <v>90</v>
       </c>
       <c r="AB107" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>330</v>
       </c>
       <c r="AC107" s="12" t="s">
@@ -20240,7 +20237,7 @@
         <v>189</v>
       </c>
       <c r="AV107">
-        <f>IF(M107&gt;O107,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW107">
@@ -20248,7 +20245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:49">
       <c r="A108" s="11" t="s">
         <v>718</v>
       </c>
@@ -20286,7 +20283,7 @@
         <v>721</v>
       </c>
       <c r="P108" s="23">
-        <f>Y108-Z108</f>
+        <f t="shared" si="16"/>
         <v>690</v>
       </c>
       <c r="Q108" s="12" t="s">
@@ -20311,7 +20308,7 @@
         <v>0.5625</v>
       </c>
       <c r="Y108" s="23">
-        <f t="shared" ref="Y108:Y134" si="7">X108*24*60</f>
+        <f t="shared" ref="Y108:Y134" si="18">X108*24*60</f>
         <v>810</v>
       </c>
       <c r="Z108" s="27">
@@ -20321,7 +20318,7 @@
         <v>90</v>
       </c>
       <c r="AB108" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>330</v>
       </c>
       <c r="AC108" s="12" t="s">
@@ -20367,7 +20364,7 @@
         <v>189</v>
       </c>
       <c r="AV108">
-        <f>IF(M108&gt;O108,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW108">
@@ -20375,7 +20372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:49">
       <c r="A109" s="11" t="s">
         <v>724</v>
       </c>
@@ -20413,7 +20410,7 @@
         <v>721</v>
       </c>
       <c r="P109" s="23">
-        <f>Y109-Z109</f>
+        <f t="shared" si="16"/>
         <v>690</v>
       </c>
       <c r="Q109" s="12" t="s">
@@ -20438,7 +20435,7 @@
         <v>0.5625</v>
       </c>
       <c r="Y109" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>810</v>
       </c>
       <c r="Z109" s="27">
@@ -20448,7 +20445,7 @@
         <v>90</v>
       </c>
       <c r="AB109" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>330</v>
       </c>
       <c r="AC109" s="12" t="s">
@@ -20494,7 +20491,7 @@
         <v>189</v>
       </c>
       <c r="AV109">
-        <f>IF(M109&gt;O109,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AW109">
@@ -20502,7 +20499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:49">
       <c r="A110" s="11" t="s">
         <v>729</v>
       </c>
@@ -20540,7 +20537,7 @@
         <v>494</v>
       </c>
       <c r="P110" s="23">
-        <f>Y110-Z110</f>
+        <f t="shared" si="16"/>
         <v>390.00000000000051</v>
       </c>
       <c r="Q110" s="12" t="s">
@@ -20565,7 +20562,7 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="Y110" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>420.00000000000051</v>
       </c>
       <c r="Z110" s="27">
@@ -20575,7 +20572,7 @@
         <v>15</v>
       </c>
       <c r="AB110" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>75</v>
       </c>
       <c r="AD110" s="11" t="s">
@@ -20606,7 +20603,7 @@
         <v>735</v>
       </c>
       <c r="AV110">
-        <f>IF(M110&gt;O110,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AW110">
@@ -20614,7 +20611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:49">
       <c r="A111" s="11" t="s">
         <v>736</v>
       </c>
@@ -20649,7 +20646,7 @@
         <v>597</v>
       </c>
       <c r="P111" s="23">
-        <f>Y111-Z111</f>
+        <f t="shared" si="16"/>
         <v>419.99999999999949</v>
       </c>
       <c r="Q111" s="12" t="s">
@@ -20674,7 +20671,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y111" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z111" s="27">
@@ -20684,7 +20681,7 @@
         <v>30</v>
       </c>
       <c r="AB111" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>150</v>
       </c>
       <c r="AC111" s="12" t="s">
@@ -20727,14 +20724,14 @@
         <v>189</v>
       </c>
       <c r="AV111">
-        <f>IF(M111&gt;O111,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW111">
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:49">
       <c r="A112" s="11" t="s">
         <v>743</v>
       </c>
@@ -20778,7 +20775,7 @@
         <v>747</v>
       </c>
       <c r="P112" s="23">
-        <f>Y112-Z112</f>
+        <f t="shared" si="16"/>
         <v>449.99999999999943</v>
       </c>
       <c r="Q112" s="12" t="s">
@@ -20803,7 +20800,7 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="Y112" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>569.99999999999943</v>
       </c>
       <c r="Z112" s="27">
@@ -20813,7 +20810,7 @@
         <v>60</v>
       </c>
       <c r="AB112" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>300</v>
       </c>
       <c r="AD112" s="11" t="s">
@@ -20844,7 +20841,7 @@
         <v>2.4</v>
       </c>
       <c r="AV112">
-        <f>IF(M112&gt;O112,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW112">
@@ -20852,7 +20849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:49">
       <c r="A113" s="11" t="s">
         <v>750</v>
       </c>
@@ -20887,7 +20884,7 @@
         <v>753</v>
       </c>
       <c r="P113" s="23">
-        <f>Y113-Z113</f>
+        <f t="shared" si="16"/>
         <v>505</v>
       </c>
       <c r="Q113" s="12" t="s">
@@ -20912,7 +20909,7 @@
         <v>0.375</v>
       </c>
       <c r="Y113" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>540</v>
       </c>
       <c r="Z113" s="27">
@@ -20922,7 +20919,7 @@
         <v>60</v>
       </c>
       <c r="AB113" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>130</v>
       </c>
       <c r="AC113" s="12" t="s">
@@ -20965,7 +20962,7 @@
         <v>189</v>
       </c>
       <c r="AV113">
-        <f>IF(M113&gt;O113,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AW113">
@@ -20973,7 +20970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:49">
       <c r="A114" s="11" t="s">
         <v>757</v>
       </c>
@@ -21011,7 +21008,7 @@
         <v>721</v>
       </c>
       <c r="P114" s="23">
-        <f>Y114-Z114</f>
+        <f t="shared" si="16"/>
         <v>685</v>
       </c>
       <c r="Q114" s="12" t="s">
@@ -21036,7 +21033,7 @@
         <v>0.5</v>
       </c>
       <c r="Y114" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>720</v>
       </c>
       <c r="Z114" s="27">
@@ -21046,7 +21043,7 @@
         <v>15</v>
       </c>
       <c r="AB114" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
       <c r="AD114" s="11" t="s">
@@ -21077,14 +21074,14 @@
         <v>281</v>
       </c>
       <c r="AV114">
-        <f>IF(M114&gt;O114,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW114">
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:49">
       <c r="A115" s="11" t="s">
         <v>761</v>
       </c>
@@ -21119,7 +21116,7 @@
         <v>277</v>
       </c>
       <c r="P115" s="23">
-        <f>Y115-Z115</f>
+        <f t="shared" si="16"/>
         <v>400</v>
       </c>
       <c r="Q115" s="12" t="s">
@@ -21144,7 +21141,7 @@
         <v>0.3125</v>
       </c>
       <c r="Y115" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>450</v>
       </c>
       <c r="Z115" s="27">
@@ -21154,7 +21151,7 @@
         <v>120</v>
       </c>
       <c r="AB115" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>220</v>
       </c>
       <c r="AD115" s="11" t="s">
@@ -21194,7 +21191,7 @@
         <v>248</v>
       </c>
       <c r="AV115">
-        <f>IF(M115&gt;O115,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW115">
@@ -21202,7 +21199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:49">
       <c r="A116" s="11" t="s">
         <v>768</v>
       </c>
@@ -21240,7 +21237,7 @@
         <v>772</v>
       </c>
       <c r="P116" s="23">
-        <f>Y116-Z116</f>
+        <f t="shared" si="16"/>
         <v>415</v>
       </c>
       <c r="Q116" s="12" t="s">
@@ -21265,7 +21262,7 @@
         <v>0.3125</v>
       </c>
       <c r="Y116" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>450</v>
       </c>
       <c r="Z116" s="27">
@@ -21275,7 +21272,7 @@
         <v>15</v>
       </c>
       <c r="AB116" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
       <c r="AD116" s="11" t="s">
@@ -21312,7 +21309,7 @@
         <v>103</v>
       </c>
       <c r="AV116">
-        <f>IF(M116&gt;O116,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW116">
@@ -21320,7 +21317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:49">
       <c r="A117" s="11" t="s">
         <v>774</v>
       </c>
@@ -21355,7 +21352,7 @@
         <v>777</v>
       </c>
       <c r="P117" s="23">
-        <f>Y117-Z117</f>
+        <f t="shared" si="16"/>
         <v>469.99999999999949</v>
       </c>
       <c r="Q117" s="12" t="s">
@@ -21380,7 +21377,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y117" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z117" s="27">
@@ -21390,7 +21387,7 @@
         <v>15</v>
       </c>
       <c r="AB117" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="AC117" s="12" t="s">
@@ -21433,7 +21430,7 @@
         <v>189</v>
       </c>
       <c r="AV117">
-        <f>IF(M117&gt;O117,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AW117">
@@ -21441,7 +21438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:49">
       <c r="A118" s="11" t="s">
         <v>782</v>
       </c>
@@ -21476,7 +21473,7 @@
         <v>777</v>
       </c>
       <c r="P118" s="23">
-        <f>Y118-Z118</f>
+        <f t="shared" si="16"/>
         <v>469.99999999999949</v>
       </c>
       <c r="Q118" s="12" t="s">
@@ -21501,7 +21498,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y118" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z118" s="27">
@@ -21511,7 +21508,7 @@
         <v>15</v>
       </c>
       <c r="AB118" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="AC118" s="12" t="s">
@@ -21554,7 +21551,7 @@
         <v>189</v>
       </c>
       <c r="AV118">
-        <f>IF(M118&gt;O118,1,0)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AW118">
@@ -21562,7 +21559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:49">
       <c r="A119" s="11" t="s">
         <v>787</v>
       </c>
@@ -21597,7 +21594,7 @@
         <v>790</v>
       </c>
       <c r="P119" s="23">
-        <f>Y119-Z119</f>
+        <f t="shared" si="16"/>
         <v>370</v>
       </c>
       <c r="Q119" s="12" t="s">
@@ -21622,7 +21619,7 @@
         <v>0.28125</v>
       </c>
       <c r="Y119" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>405</v>
       </c>
       <c r="Z119" s="27">
@@ -21632,7 +21629,7 @@
         <v>15</v>
       </c>
       <c r="AB119" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
       <c r="AC119" s="12" t="s">
@@ -21678,14 +21675,14 @@
         <v>189</v>
       </c>
       <c r="AV119">
-        <f>IF(M119&gt;O119,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW119">
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:49">
       <c r="A120" s="11" t="s">
         <v>793</v>
       </c>
@@ -21723,7 +21720,7 @@
         <v>790</v>
       </c>
       <c r="P120" s="23">
-        <f>Y120-Z120</f>
+        <f t="shared" si="16"/>
         <v>444.99999999999949</v>
       </c>
       <c r="Q120" s="12" t="s">
@@ -21748,7 +21745,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y120" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z120" s="27">
@@ -21758,7 +21755,7 @@
         <v>15</v>
       </c>
       <c r="AB120" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
       <c r="AC120" s="12" t="s">
@@ -21804,14 +21801,14 @@
         <v>189</v>
       </c>
       <c r="AV120">
-        <f>IF(M120&gt;O120,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW120">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:49">
       <c r="A121" s="11" t="s">
         <v>798</v>
       </c>
@@ -21849,7 +21846,7 @@
         <v>790</v>
       </c>
       <c r="P121" s="23">
-        <f>Y121-Z121</f>
+        <f t="shared" si="16"/>
         <v>505</v>
       </c>
       <c r="Q121" s="12" t="s">
@@ -21874,7 +21871,7 @@
         <v>0.375</v>
       </c>
       <c r="Y121" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>540</v>
       </c>
       <c r="Z121" s="27">
@@ -21884,7 +21881,7 @@
         <v>15</v>
       </c>
       <c r="AB121" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
       <c r="AC121" s="12" t="s">
@@ -21930,7 +21927,7 @@
         <v>189</v>
       </c>
       <c r="AV121">
-        <f>IF(M121&gt;O121,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW121">
@@ -21938,7 +21935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:49">
       <c r="A122" s="11" t="s">
         <v>802</v>
       </c>
@@ -21976,7 +21973,7 @@
         <v>790</v>
       </c>
       <c r="P122" s="23">
-        <f>Y122-Z122</f>
+        <f t="shared" si="16"/>
         <v>624.99999999999943</v>
       </c>
       <c r="Q122" s="12" t="s">
@@ -22001,7 +21998,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="Y122" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>659.99999999999943</v>
       </c>
       <c r="Z122" s="27">
@@ -22011,7 +22008,7 @@
         <v>15</v>
       </c>
       <c r="AB122" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>85</v>
       </c>
       <c r="AC122" s="12" t="s">
@@ -22057,7 +22054,7 @@
         <v>189</v>
       </c>
       <c r="AV122">
-        <f>IF(M122&gt;O122,1,0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AW122">
@@ -22065,7 +22062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:49">
       <c r="A123" s="11" t="s">
         <v>807</v>
       </c>
@@ -22109,7 +22106,7 @@
         <v>173</v>
       </c>
       <c r="P123" s="23">
-        <f>Y123-Z123</f>
+        <f t="shared" si="16"/>
         <v>539.99999999999943</v>
       </c>
       <c r="Q123" s="25" t="str">
@@ -22135,7 +22132,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="Y123" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>659.99999999999943</v>
       </c>
       <c r="Z123" s="27">
@@ -22145,7 +22142,7 @@
         <v>60</v>
       </c>
       <c r="AB123" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>300</v>
       </c>
       <c r="AC123" s="12" t="s">
@@ -22195,7 +22192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:49">
       <c r="A124" s="11" t="s">
         <v>812</v>
       </c>
@@ -22239,7 +22236,7 @@
         <v>814</v>
       </c>
       <c r="P124" s="23">
-        <f>Y124-Z124</f>
+        <f t="shared" si="16"/>
         <v>600</v>
       </c>
       <c r="Q124" s="25" t="str">
@@ -22265,7 +22262,7 @@
         <v>0.5</v>
       </c>
       <c r="Y124" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>720</v>
       </c>
       <c r="Z124" s="27">
@@ -22275,7 +22272,7 @@
         <v>60</v>
       </c>
       <c r="AB124" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>300</v>
       </c>
       <c r="AC124" s="12" t="s">
@@ -22328,7 +22325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:49">
       <c r="A125" s="11" t="s">
         <v>818</v>
       </c>
@@ -22363,7 +22360,7 @@
         <v>821</v>
       </c>
       <c r="P125" s="23">
-        <f>Y125-Z125</f>
+        <f t="shared" si="16"/>
         <v>500.00000000000051</v>
       </c>
       <c r="Q125" s="12" t="s">
@@ -22388,7 +22385,7 @@
         <v>0.35416666666666702</v>
       </c>
       <c r="Y125" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>510.00000000000051</v>
       </c>
       <c r="Z125" s="27">
@@ -22398,7 +22395,7 @@
         <v>15</v>
       </c>
       <c r="AB125" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="AC125" s="12" t="s">
@@ -22449,7 +22446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:49">
       <c r="A126" s="11" t="s">
         <v>826</v>
       </c>
@@ -22487,7 +22484,7 @@
         <v>319</v>
       </c>
       <c r="P126" s="23">
-        <f>Y126-Z126</f>
+        <f t="shared" si="16"/>
         <v>420</v>
       </c>
       <c r="Q126" s="12" t="s">
@@ -22512,7 +22509,7 @@
         <v>0.375</v>
       </c>
       <c r="Y126" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>540</v>
       </c>
       <c r="Z126" s="27">
@@ -22522,7 +22519,7 @@
         <v>60</v>
       </c>
       <c r="AB126" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>300</v>
       </c>
       <c r="AC126" s="12" t="s">
@@ -22575,7 +22572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:49">
       <c r="A127" s="11" t="s">
         <v>833</v>
       </c>
@@ -22610,7 +22607,7 @@
         <v>836</v>
       </c>
       <c r="P127" s="23">
-        <f>Y127-Z127</f>
+        <f t="shared" si="16"/>
         <v>680.00000000000057</v>
       </c>
       <c r="Q127" s="12" t="s">
@@ -22635,7 +22632,7 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="Y127" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>690.00000000000057</v>
       </c>
       <c r="Z127" s="27">
@@ -22645,7 +22642,7 @@
         <v>15</v>
       </c>
       <c r="AB127" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="AC127" s="12" t="s">
@@ -22696,7 +22693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:49">
       <c r="A128" s="11" t="s">
         <v>837</v>
       </c>
@@ -22734,7 +22731,7 @@
         <v>334</v>
       </c>
       <c r="P128" s="23">
-        <f>Y128-Z128</f>
+        <f t="shared" si="16"/>
         <v>829.99999999999955</v>
       </c>
       <c r="Q128" s="12" t="s">
@@ -22759,7 +22756,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="Y128" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>839.99999999999955</v>
       </c>
       <c r="Z128" s="27">
@@ -22769,7 +22766,7 @@
         <v>15</v>
       </c>
       <c r="AB128" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="AC128" s="12" t="s">
@@ -22820,7 +22817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:49">
       <c r="A129" s="11" t="s">
         <v>843</v>
       </c>
@@ -22855,7 +22852,7 @@
         <v>334</v>
       </c>
       <c r="P129" s="23">
-        <f>Y129-Z129</f>
+        <f t="shared" si="16"/>
         <v>829.99999999999955</v>
       </c>
       <c r="Q129" s="12" t="s">
@@ -22880,7 +22877,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="Y129" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>839.99999999999955</v>
       </c>
       <c r="Z129" s="27">
@@ -22890,7 +22887,7 @@
         <v>15</v>
       </c>
       <c r="AB129" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="AC129" s="12" t="s">
@@ -22941,7 +22938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:49">
       <c r="A130" s="11" t="s">
         <v>846</v>
       </c>
@@ -22976,7 +22973,7 @@
         <v>225</v>
       </c>
       <c r="P130" s="23">
-        <f>Y130-Z130</f>
+        <f t="shared" si="16"/>
         <v>550.00000000000057</v>
       </c>
       <c r="Q130" s="12" t="s">
@@ -23001,7 +22998,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="Y130" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>600.00000000000057</v>
       </c>
       <c r="Z130" s="27">
@@ -23011,7 +23008,7 @@
         <v>60</v>
       </c>
       <c r="AB130" s="23">
-        <f t="shared" ref="AB130:AB134" si="8">Z130*2+AA130</f>
+        <f t="shared" ref="AB130:AB134" si="19">Z130*2+AA130</f>
         <v>160</v>
       </c>
       <c r="AC130" s="12" t="s">
@@ -23062,7 +23059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:49">
       <c r="A131" s="11" t="s">
         <v>851</v>
       </c>
@@ -23106,7 +23103,7 @@
         <v>215</v>
       </c>
       <c r="P131" s="23">
-        <f>Y131-Z131</f>
+        <f t="shared" si="16"/>
         <v>359.99999999999949</v>
       </c>
       <c r="Q131" s="12" t="s">
@@ -23131,7 +23128,7 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="Y131" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>479.99999999999949</v>
       </c>
       <c r="Z131" s="27">
@@ -23141,7 +23138,7 @@
         <v>60</v>
       </c>
       <c r="AB131" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="AD131" s="11" t="s">
@@ -23178,7 +23175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:49">
       <c r="A132" s="11" t="s">
         <v>856</v>
       </c>
@@ -23216,7 +23213,7 @@
         <v>859</v>
       </c>
       <c r="P132" s="23">
-        <f>Y132-Z132</f>
+        <f t="shared" si="16"/>
         <v>660.00000000000045</v>
       </c>
       <c r="Q132" s="12" t="s">
@@ -23241,7 +23238,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="Y132" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>780.00000000000045</v>
       </c>
       <c r="Z132" s="27">
@@ -23251,7 +23248,7 @@
         <v>60</v>
       </c>
       <c r="AB132" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="AC132" s="12" t="s">
@@ -23308,7 +23305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:49">
       <c r="A133" s="11" t="s">
         <v>862</v>
       </c>
@@ -23346,7 +23343,7 @@
         <v>776</v>
       </c>
       <c r="P133" s="23">
-        <f>Y133-Z133</f>
+        <f t="shared" si="16"/>
         <v>690</v>
       </c>
       <c r="Q133" s="12" t="s">
@@ -23371,7 +23368,7 @@
         <v>0.5625</v>
       </c>
       <c r="Y133" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>810</v>
       </c>
       <c r="Z133" s="27">
@@ -23381,7 +23378,7 @@
         <v>60</v>
       </c>
       <c r="AB133" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="AC133" s="12" t="s">
@@ -23437,7 +23434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:49">
       <c r="A134" s="11" t="s">
         <v>866</v>
       </c>
@@ -23472,7 +23469,7 @@
         <v>868</v>
       </c>
       <c r="P134" s="23">
-        <f>Y134-Z134</f>
+        <f t="shared" si="16"/>
         <v>780</v>
       </c>
       <c r="Q134" s="25">
@@ -23495,7 +23492,7 @@
         <v>0.625</v>
       </c>
       <c r="Y134" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>900</v>
       </c>
       <c r="Z134" s="27">
@@ -23505,7 +23502,7 @@
         <v>60</v>
       </c>
       <c r="AB134" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>300</v>
       </c>
       <c r="AH134" s="11">
@@ -23540,7 +23537,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AW134" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:AW134"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -23549,24 +23546,29 @@
 Report: Truck planning</oddHeader>
     <oddFooter>&amp;LFile: &amp;F, &amp;D - &amp;T&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A47" activeCellId="1" sqref="AE14:BB18 A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -23574,7 +23576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -23582,7 +23584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -23590,7 +23592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -23598,7 +23600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -23606,7 +23608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -23614,7 +23616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -23622,7 +23624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -23630,7 +23632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -23638,7 +23640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -23646,7 +23648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -23654,7 +23656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -23662,7 +23664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -23670,7 +23672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -23678,7 +23680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -23686,7 +23688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -23694,7 +23696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -23702,7 +23704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
@@ -23710,7 +23712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -23718,7 +23720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -23726,7 +23728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -23734,7 +23736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
@@ -23742,7 +23744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
@@ -23750,7 +23752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -23758,7 +23760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
@@ -23766,7 +23768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
@@ -23774,7 +23776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
@@ -23782,7 +23784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
@@ -23790,7 +23792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
@@ -23798,7 +23800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
@@ -23806,7 +23808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
@@ -23814,7 +23816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
@@ -23822,7 +23824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
@@ -23830,7 +23832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
         <v>33</v>
       </c>
@@ -23838,7 +23840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
@@ -23846,7 +23848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
         <v>35</v>
       </c>
@@ -23854,7 +23856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
@@ -23862,7 +23864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -23870,7 +23872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -23878,7 +23880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -23886,7 +23888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -23894,7 +23896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -23902,7 +23904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
         <v>42</v>
       </c>
@@ -23910,7 +23912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="8" t="s">
         <v>43</v>
       </c>
@@ -23918,7 +23920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="10" t="s">
         <v>44</v>
       </c>
@@ -23930,5 +23932,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>